--- a/urls.xlsx
+++ b/urls.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020 - 2024" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2015 - 2019" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2010 - 2014" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -35,9 +36,7 @@
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -51,12 +50,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -89,8 +103,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,20 +480,20 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>URLs</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Quarter</t>
         </is>
@@ -20310,4 +20326,1502 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>URLs</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/information-technology/more-news/ibm-opens-90mln-ibm-singapore-technology-park</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2010 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/hdb/139-jalan-bukit-merah</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2012 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/ura-acts-curb-use-soho-developers</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/hdb-calls-time-assignment-tenanted-business-space</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/sitting-goldmine-%E2%80%93-landed-housing-segment</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/lawmakers-raise-flag-rising-business-costs</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/smart-way-property-investment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/transport-logistics/interview/interview-saw-phaik-hwa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2010 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/co-written-partner</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2011 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/economy/news/chart-day-singapores-import-food-prices</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2012 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/condo-apartment/crown-centre</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2012 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/professional-serviceslegal</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2012 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/residential-property/exclusive/possibly-one-last-luxury-condos-below-1000-psf-pasir-ris-launched</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2013 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/residential-property/exclusive/singapores-10-tallest-residential-buildings</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commercial-property/news/onechangi-city-opens-over-90-occupancy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commercial-property/exclusive/check-out-these-8-strata-titled-shop-units-grabs-interlace-condo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/food-beverage/exclusive/take-sneak-peek-breadtalk-headquarters-in-singapore</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/companies-markets/jubilee-interesting-iskandar-play</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/be-clear-on-units-marketed-as-soho-ura-tells-developers</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/professional-serviceslegal/exclusive/meet-man-behind-homegrown-kg-tan-co-pac</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/aviation/exclusive/pratt-whitney-singapore-office-makes-you-feel-you%25E2%2580%2599re-in-outer-space</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/property/hdb-gives-its-resale-price-index-more-oomph</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/information-technology/exclusive/new-acronis-hq-will-make-you-feel-%25E2%2580%2598walking-blue-space%25E2%2580%2599-1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/companies-markets/singapores-gic-invest-indonesia-property-rajawali</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/hr-education/commentary/why-yearend-best-time-find-job-in-singapore</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/pearls-centre-owners-compensated-with-ex-gratia-payment</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2013 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/slacker-who-woke-up-and-smelled-the-coffee</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2013 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/four-moneychangers-fined-for-role-in-fiji-heist-involving-1m</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2013 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/singapore-doctors-wine-collection-nets-49m-at-hk-auction</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/runners-dont-bolt-down-this-drug</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/ismail-hussein-from-a-bank-to-parliament</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/jll-buys-20-stake-in-propnexs-project-marketing-arm</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/3-things-about-yishuns-upcoming-integrated-development-northpoint-city-0</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/space-jam-smaller-retailers-band-together-to-save-on-rent</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/how-plaza-singapura-survived-tough-retail-market-to-turn-40</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/housing/from-the-straits-times-archives-a-modern-new-look-for-bidadari</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/opinion/singapore-shows-the-world-the-way-ahead</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/wow-wow-west-jurongs-revamped-gardens</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/singapore-is-facing-a-glut-of-lawyers-shanmugam</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/busy-first-day-for-lau-pa-sat-after-4-million-revamp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/cpf-issue-gic-manages-cpf-monies-along-with-other-govt-funds-dpm-tharman</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/competition-heats-farrer-road-leedon-road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/companies-markets/geo-energy-ceo-tung-kum-hon-retire-dec-31</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2010 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/retail/feature/barang-barang-goes-bust</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2010 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/leisure-entertainment</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2011 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/retail/commentary/how-can-business-in-singapore-be-prepared-lemon-law</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2012 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/residential-property/news/nearly-3-in-10-singaporeans-own-more-one-house</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2012 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/4-very-powerful-friends-lee-kuan-yew-helmut-schmidt-henry-kissinger-george-shultz</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2012 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/keywords/asean-business?_wrapper_format=html&amp;page=29</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2013 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/media-marketing/people/tamil-murasu-appoints-jawharilal-rajendran-editor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2011 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/professional-services/more-news/lee-chuan-seng-appointed-bca-deputy-chairman</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2011 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/private-units-under-1000-psf-still-available</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/hdb-to-relocate-399-units-from-eunos-industrial-estate-to-new-ang-mo-kio-complex</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/construction-firm-lian-beng-group-buys-503-stake-in-centurion-corp</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/a-history-of-singapore-in-50-objects</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/food/makan-place-from-dawn-till-dark</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/food/longhouse-lives-on</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/3-singapore-companies-making-a-splash-in-the-us</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/crafting-a-business-handmade-industry-growing-in-singapore-but-faces-challenges</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/financial-adviser-affirms-uics-offer-for-singapore-land-shares-are-fair</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/cheap-diesel-sold-illegally-at-white-pumps</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/money-talk-st-engineering-oue-wilmar-international</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/robinsons-down-memory-lane-with-singapores-oldest-home-grown-department-store</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/money-talk-comfortdelgro-dyna-mac-frasers-centrepoint</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/space-for-makers-to-work-their-do-it-yourself-magic</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/uol-groups-q3-net-profit-rises-10-to-1026-million</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/on-a-mission-to-root-out-poverty</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/hipster-culture-helps-spur-business-growth-and-transform-neighbourhoods</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/opinion/singapores-role-in-the-yuan-story</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/united-engineers-inks-deal-to-sell-ue-ec-at-125-a-share</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/markets-investing</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2010 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commentary</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2010 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/retail/news/70-singaporeans-are-shopaholics</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2011 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commercial-property/news/shopping-galore-capitaland-has-got-some-competition</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2011 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commercial-property/markets-investing/uol-group-resilient-multi-growth-engines</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2011 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/prices-rents-of-hdb-shops-up-due-to-limited-supply-investor-demand</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2013 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/foreigners-share-home-purchases-creeping</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/may-sales-private-condos-double-preceding-months</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/companies-markets/sgx-may-ease-rules-secondary-listings</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/ho-bee%E2%80%99s-metropolis</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/new-lease-%E2%80%98awesomeness%E2%80%99</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/good-class-bungalow-35-mil</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/prudential-tower-strata-unit-sale-2800-psf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/jewel-rangoon-road</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/shadow-d%E2%80%99leedon</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/pricing-shock-iskandar%E2%80%99s-puteri-harbour</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/urls.xlsx
+++ b/urls.xlsx
@@ -3,28 +3,36 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020 - 2024" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2015 - 2019" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2010 - 2014" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2005 - 2009" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2000 - 2004" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -50,12 +58,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -98,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -107,6 +130,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -20340,1484 +20366,1556 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>URLs</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/information-technology/more-news/ibm-opens-90mln-ibm-singapore-technology-park</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2010 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/hdb/139-jalan-bukit-merah</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2012 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/ura-acts-curb-use-soho-developers</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/hdb-calls-time-assignment-tenanted-business-space</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/sitting-goldmine-%E2%80%93-landed-housing-segment</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/lawmakers-raise-flag-rising-business-costs</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/smart-way-property-investment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cna</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/transport-logistics/interview/interview-saw-phaik-hwa</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2010 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/co-written-partner</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2011 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/economy/news/chart-day-singapores-import-food-prices</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2012 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/condo-apartment/crown-centre</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2012 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/professional-serviceslegal</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2012 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/residential-property/exclusive/possibly-one-last-luxury-condos-below-1000-psf-pasir-ris-launched</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2013 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/residential-property/exclusive/singapores-10-tallest-residential-buildings</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commercial-property/news/onechangi-city-opens-over-90-occupancy</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commercial-property/exclusive/check-out-these-8-strata-titled-shop-units-grabs-interlace-condo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/food-beverage/exclusive/take-sneak-peek-breadtalk-headquarters-in-singapore</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/companies-markets/jubilee-interesting-iskandar-play</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/be-clear-on-units-marketed-as-soho-ura-tells-developers</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2013 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/professional-serviceslegal/exclusive/meet-man-behind-homegrown-kg-tan-co-pac</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/aviation/exclusive/pratt-whitney-singapore-office-makes-you-feel-you%25E2%2580%2599re-in-outer-space</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/property/hdb-gives-its-resale-price-index-more-oomph</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/information-technology/exclusive/new-acronis-hq-will-make-you-feel-%25E2%2580%2598walking-blue-space%25E2%2580%2599-1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/companies-markets/singapores-gic-invest-indonesia-property-rajawali</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/hr-education/commentary/why-yearend-best-time-find-job-in-singapore</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>singapore business review</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/pearls-centre-owners-compensated-with-ex-gratia-payment</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2013 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/slacker-who-woke-up-and-smelled-the-coffee</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2013 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/four-moneychangers-fined-for-role-in-fiji-heist-involving-1m</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2013 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/singapore-doctors-wine-collection-nets-49m-at-hk-auction</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/runners-dont-bolt-down-this-drug</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/ismail-hussein-from-a-bank-to-parliament</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/jll-buys-20-stake-in-propnexs-project-marketing-arm</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/3-things-about-yishuns-upcoming-integrated-development-northpoint-city-0</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/space-jam-smaller-retailers-band-together-to-save-on-rent</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/how-plaza-singapura-survived-tough-retail-market-to-turn-40</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/housing/from-the-straits-times-archives-a-modern-new-look-for-bidadari</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/opinion/singapore-shows-the-world-the-way-ahead</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/wow-wow-west-jurongs-revamped-gardens</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/singapore-is-facing-a-glut-of-lawyers-shanmugam</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/busy-first-day-for-lau-pa-sat-after-4-million-revamp</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/cpf-issue-gic-manages-cpf-monies-along-with-other-govt-funds-dpm-tharman</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2014 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/competition-heats-farrer-road-leedon-road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/companies-markets/geo-energy-ceo-tung-kum-hon-retire-dec-31</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2010 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/retail/feature/barang-barang-goes-bust</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2010 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/leisure-entertainment</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2011 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/retail/commentary/how-can-business-in-singapore-be-prepared-lemon-law</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2012 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/residential-property/news/nearly-3-in-10-singaporeans-own-more-one-house</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2012 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/4-very-powerful-friends-lee-kuan-yew-helmut-schmidt-henry-kissinger-george-shultz</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2012 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/keywords/asean-business?_wrapper_format=html&amp;page=29</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2013 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/media-marketing/people/tamil-murasu-appoints-jawharilal-rajendran-editor</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2011 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/professional-services/more-news/lee-chuan-seng-appointed-bca-deputy-chairman</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2011 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/private-units-under-1000-psf-still-available</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2013 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/hdb-to-relocate-399-units-from-eunos-industrial-estate-to-new-ang-mo-kio-complex</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/construction-firm-lian-beng-group-buys-503-stake-in-centurion-corp</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/a-history-of-singapore-in-50-objects</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/food/makan-place-from-dawn-till-dark</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/food/longhouse-lives-on</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2014 Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/3-singapore-companies-making-a-splash-in-the-us</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/crafting-a-business-handmade-industry-growing-in-singapore-but-faces-challenges</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/financial-adviser-affirms-uics-offer-for-singapore-land-shares-are-fair</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/cheap-diesel-sold-illegally-at-white-pumps</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/money-talk-st-engineering-oue-wilmar-international</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/robinsons-down-memory-lane-with-singapores-oldest-home-grown-department-store</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/money-talk-comfortdelgro-dyna-mac-frasers-centrepoint</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/space-for-makers-to-work-their-do-it-yourself-magic</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/uol-groups-q3-net-profit-rises-10-to-1026-million</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/on-a-mission-to-root-out-poverty</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/lifestyle/hipster-culture-helps-spur-business-growth-and-transform-neighbourhoods</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/opinion/singapores-role-in-the-yuan-story</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/business/companies-markets/united-engineers-inks-deal-to-sell-ue-ec-at-125-a-share</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>straits times</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/markets-investing</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2010 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commentary</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2010 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/retail/news/70-singaporeans-are-shopaholics</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2011 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commercial-property/news/shopping-galore-capitaland-has-got-some-competition</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2011 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://sbr.com.sg/commercial-property/markets-investing/uol-group-resilient-multi-growth-engines</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2011 Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.straitstimes.com/singapore/prices-rents-of-hdb-shops-up-due-to-limited-supply-investor-demand</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2013 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/foreigners-share-home-purchases-creeping</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/incoming/may-sales-private-condos-double-preceding-months</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.businesstimes.com.sg/companies-markets/sgx-may-ease-rules-secondary-listings</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>business times</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2014 Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/ho-bee%E2%80%99s-metropolis</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/new-lease-%E2%80%98awesomeness%E2%80%99</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/good-class-bungalow-35-mil</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/prudential-tower-strata-unit-sale-2800-psf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/jewel-rangoon-road</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/shadow-d%E2%80%99leedon</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.edgeprop.sg/property-news/pricing-shock-iskandar%E2%80%99s-puteri-harbour</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>edgeprop</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2014 Q4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>URLs</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Quarter</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/information-technology/more-news/ibm-opens-90mln-ibm-singapore-technology-park</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cna</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2010 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/hdb/139-jalan-bukit-merah</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>cna</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2012 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/incoming/ura-acts-curb-use-soho-developers</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>cna</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2013 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/incoming/hdb-calls-time-assignment-tenanted-business-space</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>cna</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2013 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/sitting-goldmine-%E2%80%93-landed-housing-segment</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>cna</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2014 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/incoming/lawmakers-raise-flag-rising-business-costs</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>cna</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2014 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/incoming/smart-way-property-investment</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>cna</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2014 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/transport-logistics/interview/interview-saw-phaik-hwa</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2010 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/co-written-partner</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2011 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/economy/news/chart-day-singapores-import-food-prices</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2012 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/condo-apartment/crown-centre</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2012 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/professional-serviceslegal</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2012 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/residential-property/exclusive/possibly-one-last-luxury-condos-below-1000-psf-pasir-ris-launched</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2013 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/residential-property/exclusive/singapores-10-tallest-residential-buildings</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2013 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/commercial-property/news/onechangi-city-opens-over-90-occupancy</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2013 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/commercial-property/exclusive/check-out-these-8-strata-titled-shop-units-grabs-interlace-condo</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2013 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/food-beverage/exclusive/take-sneak-peek-breadtalk-headquarters-in-singapore</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2013 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/companies-markets/jubilee-interesting-iskandar-play</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2013 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/be-clear-on-units-marketed-as-soho-ura-tells-developers</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2013 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/professional-serviceslegal/exclusive/meet-man-behind-homegrown-kg-tan-co-pac</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/aviation/exclusive/pratt-whitney-singapore-office-makes-you-feel-you%25E2%2580%2599re-in-outer-space</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/property/hdb-gives-its-resale-price-index-more-oomph</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/information-technology/exclusive/new-acronis-hq-will-make-you-feel-%25E2%2580%2598walking-blue-space%25E2%2580%2599-1</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/companies-markets/singapores-gic-invest-indonesia-property-rajawali</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/hr-education/commentary/why-yearend-best-time-find-job-in-singapore</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>singapore business review</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/pearls-centre-owners-compensated-with-ex-gratia-payment</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2013 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/slacker-who-woke-up-and-smelled-the-coffee</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2013 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/four-moneychangers-fined-for-role-in-fiji-heist-involving-1m</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2013 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/singapore-doctors-wine-collection-nets-49m-at-hk-auction</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2013 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/runners-dont-bolt-down-this-drug</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2013 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/ismail-hussein-from-a-bank-to-parliament</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/jll-buys-20-stake-in-propnexs-project-marketing-arm</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/3-things-about-yishuns-upcoming-integrated-development-northpoint-city-0</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/lifestyle/space-jam-smaller-retailers-band-together-to-save-on-rent</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/lifestyle/how-plaza-singapura-survived-tough-retail-market-to-turn-40</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/housing/from-the-straits-times-archives-a-modern-new-look-for-bidadari</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/opinion/singapore-shows-the-world-the-way-ahead</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/lifestyle/wow-wow-west-jurongs-revamped-gardens</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/singapore-is-facing-a-glut-of-lawyers-shanmugam</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/busy-first-day-for-lau-pa-sat-after-4-million-revamp</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/cpf-issue-gic-manages-cpf-monies-along-with-other-govt-funds-dpm-tharman</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2014 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/competition-heats-farrer-road-leedon-road</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/companies-markets/geo-energy-ceo-tung-kum-hon-retire-dec-31</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2010 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/retail/feature/barang-barang-goes-bust</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2010 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/leisure-entertainment</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2011 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/retail/commentary/how-can-business-in-singapore-be-prepared-lemon-law</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2012 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/residential-property/news/nearly-3-in-10-singaporeans-own-more-one-house</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2012 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/4-very-powerful-friends-lee-kuan-yew-helmut-schmidt-henry-kissinger-george-shultz</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2012 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/keywords/asean-business?_wrapper_format=html&amp;page=29</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2013 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/media-marketing/people/tamil-murasu-appoints-jawharilal-rajendran-editor</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2011 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/professional-services/more-news/lee-chuan-seng-appointed-bca-deputy-chairman</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2011 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/private-units-under-1000-psf-still-available</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2013 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/hdb-to-relocate-399-units-from-eunos-industrial-estate-to-new-ang-mo-kio-complex</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2014 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/construction-firm-lian-beng-group-buys-503-stake-in-centurion-corp</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2014 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/a-history-of-singapore-in-50-objects</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2014 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/lifestyle/food/makan-place-from-dawn-till-dark</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2014 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/lifestyle/food/longhouse-lives-on</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2014 Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/3-singapore-companies-making-a-splash-in-the-us</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/lifestyle/crafting-a-business-handmade-industry-growing-in-singapore-but-faces-challenges</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/companies-markets/financial-adviser-affirms-uics-offer-for-singapore-land-shares-are-fair</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/cheap-diesel-sold-illegally-at-white-pumps</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/companies-markets/money-talk-st-engineering-oue-wilmar-international</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/lifestyle/robinsons-down-memory-lane-with-singapores-oldest-home-grown-department-store</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/companies-markets/money-talk-comfortdelgro-dyna-mac-frasers-centrepoint</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/space-for-makers-to-work-their-do-it-yourself-magic</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/companies-markets/uol-groups-q3-net-profit-rises-10-to-1026-million</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/on-a-mission-to-root-out-poverty</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/lifestyle/hipster-culture-helps-spur-business-growth-and-transform-neighbourhoods</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/opinion/singapores-role-in-the-yuan-story</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/business/companies-markets/united-engineers-inks-deal-to-sell-ue-ec-at-125-a-share</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>straits times</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/markets-investing</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2010 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/commentary</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2010 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/retail/news/70-singaporeans-are-shopaholics</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2011 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/commercial-property/news/shopping-galore-capitaland-has-got-some-competition</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2011 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>https://sbr.com.sg/commercial-property/markets-investing/uol-group-resilient-multi-growth-engines</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2011 Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>https://www.straitstimes.com/singapore/prices-rents-of-hdb-shops-up-due-to-limited-supply-investor-demand</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2013 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/incoming/foreigners-share-home-purchases-creeping</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/incoming/may-sales-private-condos-double-preceding-months</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>https://www.businesstimes.com.sg/companies-markets/sgx-may-ease-rules-secondary-listings</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>business times</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2014 Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/ho-bee%E2%80%99s-metropolis</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>edgeprop</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/new-lease-%E2%80%98awesomeness%E2%80%99</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>edgeprop</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/good-class-bungalow-35-mil</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>edgeprop</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/prudential-tower-strata-unit-sale-2800-psf</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>edgeprop</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/jewel-rangoon-road</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>edgeprop</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/shadow-d%E2%80%99leedon</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>edgeprop</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>https://www.edgeprop.sg/property-news/pricing-shock-iskandar%E2%80%99s-puteri-harbour</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>edgeprop</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2014 Q4</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>URLs</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Quarter</t>
         </is>
       </c>
     </row>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loowenwen/Desktop/Visual Code Studio/jtc-market-sentiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266DB0A3-0C24-744C-BC32-0A35242CDE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AEA55F-26F3-104A-A9B2-478BC3CABC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14940" yWindow="500" windowWidth="13860" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 - 2024" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="2000 - 2004" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2010 - 2014'!$A$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2010 - 2014'!$A$1:$C$79</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2015 - 2019'!$A$1:$C$503</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020 - 2024'!$A$1:$C$590</definedName>
   </definedNames>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="2330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="2325">
   <si>
     <t>URLs</t>
   </si>
@@ -6557,12 +6557,6 @@
     <t>2010-05-21T20:30:40+0800</t>
   </si>
   <si>
-    <t>https://www.edgeprop.sg/hdb/139-jalan-bukit-merah</t>
-  </si>
-  <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/hdb/139-jalan-bukit-merah</t>
-  </si>
-  <si>
     <t>https://www.businesstimes.com.sg/incoming/ura-acts-curb-use-soho-developers</t>
   </si>
   <si>
@@ -6578,9 +6572,6 @@
     <t>https://www.edgeprop.sg/property-news/sitting-goldmine-%E2%80%93-landed-housing-segment</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/sitting-goldmine-%E2%80%93-landed-housing-segment</t>
-  </si>
-  <si>
     <t>https://www.businesstimes.com.sg/incoming/lawmakers-raise-flag-rising-business-costs</t>
   </si>
   <si>
@@ -6605,12 +6596,6 @@
     <t>2012-05-28T09:26:06+0800</t>
   </si>
   <si>
-    <t>https://www.edgeprop.sg/condo-apartment/crown-centre</t>
-  </si>
-  <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/condo-apartment/crown-centre</t>
-  </si>
-  <si>
     <t>https://sbr.com.sg/residential-property/exclusive/possibly-one-last-luxury-condos-below-1000-psf-pasir-ris-launched</t>
   </si>
   <si>
@@ -6788,9 +6773,6 @@
     <t>https://www.edgeprop.sg/property-news/competition-heats-farrer-road-leedon-road</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/competition-heats-farrer-road-leedon-road</t>
-  </si>
-  <si>
     <t>https://www.businesstimes.com.sg/companies-markets/geo-energy-ceo-tung-kum-hon-retire-dec-31</t>
   </si>
   <si>
@@ -6992,46 +6974,49 @@
     <t>https://www.edgeprop.sg/property-news/ho-bee%E2%80%99s-metropolis</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/ho-bee%E2%80%99s-metropolis</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/new-lease-%E2%80%98awesomeness%E2%80%99</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/new-lease-%E2%80%98awesomeness%E2%80%99</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/good-class-bungalow-35-mil</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/good-class-bungalow-35-mil</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/prudential-tower-strata-unit-sale-2800-psf</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/prudential-tower-strata-unit-sale-2800-psf</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/jewel-rangoon-road</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/jewel-rangoon-road</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/shadow-d%E2%80%99leedon</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/shadow-d%E2%80%99leedon</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/pricing-shock-iskandar%E2%80%99s-puteri-harbour</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/pricing-shock-iskandar%E2%80%99s-puteri-harbour</t>
-  </si>
-  <si>
     <t>Quarter</t>
+  </si>
+  <si>
+    <t>2014-03-01T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2014-10-06T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2014-12-08T10:48:55+08:00</t>
+  </si>
+  <si>
+    <t>2014-10-13T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2014-10-20T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2014-10-27T10:50:58+08:00</t>
+  </si>
+  <si>
+    <t>2014-11-24T15:51:30+08:00</t>
+  </si>
+  <si>
+    <t>2014-10-20T13:31:07+08:00</t>
   </si>
 </sst>
 </file>
@@ -19458,10 +19443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19523,815 +19508,815 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>2176</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
         <v>2181</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" t="s">
         <v>2211</v>
-      </c>
-      <c r="B23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2212</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" t="s">
         <v>2213</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" t="s">
         <v>2215</v>
-      </c>
-      <c r="B25" t="s">
-        <v>301</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" t="s">
         <v>2217</v>
-      </c>
-      <c r="B26" t="s">
-        <v>301</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" t="s">
         <v>2219</v>
-      </c>
-      <c r="B27" t="s">
-        <v>301</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" t="s">
         <v>2221</v>
-      </c>
-      <c r="B28" t="s">
-        <v>301</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2222</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" t="s">
         <v>2223</v>
-      </c>
-      <c r="B29" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" t="s">
         <v>2225</v>
-      </c>
-      <c r="B30" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2226</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" t="s">
         <v>2227</v>
-      </c>
-      <c r="B31" t="s">
-        <v>301</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2228</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32" t="s">
         <v>2229</v>
-      </c>
-      <c r="B32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2230</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" t="s">
         <v>2231</v>
-      </c>
-      <c r="B33" t="s">
-        <v>301</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2232</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" t="s">
         <v>2233</v>
-      </c>
-      <c r="B34" t="s">
-        <v>301</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" t="s">
         <v>2235</v>
-      </c>
-      <c r="B35" t="s">
-        <v>301</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2236</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" t="s">
         <v>2237</v>
-      </c>
-      <c r="B36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2238</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" t="s">
         <v>2239</v>
-      </c>
-      <c r="B37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" t="s">
         <v>2241</v>
-      </c>
-      <c r="B38" t="s">
-        <v>301</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="B39" t="s">
         <v>301</v>
       </c>
       <c r="C39" t="s">
-        <v>2244</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B40" t="s">
-        <v>301</v>
+        <v>603</v>
       </c>
       <c r="C40" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B41" t="s">
-        <v>301</v>
+        <v>603</v>
       </c>
       <c r="C41" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B42" t="s">
         <v>603</v>
       </c>
       <c r="C42" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="B43" t="s">
         <v>603</v>
       </c>
       <c r="C43" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="B44" t="s">
         <v>603</v>
       </c>
       <c r="C44" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="B45" t="s">
-        <v>603</v>
+        <v>301</v>
       </c>
       <c r="C45" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="B46" t="s">
-        <v>603</v>
+        <v>301</v>
       </c>
       <c r="C46" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B47" t="s">
         <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B48" t="s">
         <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B49" t="s">
         <v>301</v>
       </c>
       <c r="C49" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B50" t="s">
         <v>301</v>
       </c>
       <c r="C50" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B51" t="s">
         <v>301</v>
       </c>
       <c r="C51" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B52" t="s">
         <v>301</v>
       </c>
       <c r="C52" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B53" t="s">
         <v>301</v>
       </c>
       <c r="C53" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B54" t="s">
         <v>301</v>
       </c>
       <c r="C54" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="B55" t="s">
         <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="B56" t="s">
         <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="B57" t="s">
         <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="B58" t="s">
         <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B59" t="s">
         <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B60" t="s">
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B61" t="s">
         <v>301</v>
       </c>
       <c r="C61" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="B62" t="s">
         <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B63" t="s">
         <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B64" t="s">
         <v>301</v>
       </c>
       <c r="C64" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B65" t="s">
         <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B66" t="s">
-        <v>301</v>
+        <v>603</v>
       </c>
       <c r="C66" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>603</v>
       </c>
       <c r="C67" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B68" t="s">
         <v>603</v>
       </c>
       <c r="C68" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B69" t="s">
         <v>603</v>
       </c>
       <c r="C69" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B70" t="s">
         <v>603</v>
       </c>
       <c r="C70" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="B71" t="s">
         <v>603</v>
       </c>
       <c r="C71" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B72" t="s">
         <v>603</v>
       </c>
       <c r="C72" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="B73" t="s">
-        <v>603</v>
+        <v>787</v>
       </c>
       <c r="C73" t="s">
-        <v>2312</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="B74" t="s">
-        <v>603</v>
+        <v>787</v>
       </c>
       <c r="C74" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="B75" t="s">
         <v>787</v>
       </c>
       <c r="C75" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="B76" t="s">
         <v>787</v>
       </c>
       <c r="C76" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="B77" t="s">
         <v>787</v>
       </c>
       <c r="C77" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>2321</v>
+        <v>2314</v>
       </c>
       <c r="B78" t="s">
         <v>787</v>
       </c>
       <c r="C78" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="B79" t="s">
         <v>787</v>
@@ -20340,30 +20325,8 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>2325</v>
-      </c>
-      <c r="B80" t="s">
-        <v>787</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>2327</v>
-      </c>
-      <c r="B81" t="s">
-        <v>787</v>
-      </c>
-      <c r="C81" t="s">
-        <v>2328</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C81" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:C79" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -20384,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2329</v>
+        <v>2316</v>
       </c>
     </row>
   </sheetData>
@@ -20408,7 +20371,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2329</v>
+        <v>2316</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loowenwen/Desktop/Visual Code Studio/jtc-market-sentiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B2E309-98B3-6F44-BA37-7362CEA126F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5EF4B0-B0C7-D84A-8BAE-533C5A842B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="500" windowWidth="13860" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 - 2024" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="2313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="2310">
   <si>
     <t>URLs</t>
   </si>
@@ -4583,9 +4583,6 @@
     <t>https://www.edgeprop.sg/property-news/singapore-has-best-prospects-investment-asia-pacific</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/singapore-has-best-prospects-investment-asia-pacific</t>
-  </si>
-  <si>
     <t>https://www.straitstimes.com/business/companies-markets/keppel-reit-sells-bugis-junction-towers-for-5475m-388m-above-purchase</t>
   </si>
   <si>
@@ -4601,9 +4598,6 @@
     <t>https://www.edgeprop.sg/property-news/economic-headwinds-may-moderate-industrial-rents-2020</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/economic-headwinds-may-moderate-industrial-rents-2020</t>
-  </si>
-  <si>
     <t>https://www.straitstimes.com/singapore/housing/mixed-use-development-one-holland-village-to-include-homes-retail-offices-and</t>
   </si>
   <si>
@@ -4736,9 +4730,6 @@
     <t>https://www.edgeprop.sg/property-news/malls-revitalise-amid-retail-woes</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/malls-revitalise-amid-retail-woes</t>
-  </si>
-  <si>
     <t>https://www.businesstimes.com.sg/property/some-condos-being-run-serviced-apartments</t>
   </si>
   <si>
@@ -4883,9 +4874,6 @@
     <t>https://www.edgeprop.sg/property-news/uol-stays-nimble</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/uol-stays-nimble</t>
-  </si>
-  <si>
     <t>https://www.businesstimes.com.sg/property/en-bloc-contagion-spreads-commercial-mixed-use-properties</t>
   </si>
   <si>
@@ -5033,9 +5021,6 @@
     <t>https://www.edgeprop.sg/property-news/singaporeans-are-loving-luxury-homes-foreigners-cant-buy</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/singaporeans-are-loving-luxury-homes-foreigners-cant-buy</t>
-  </si>
-  <si>
     <t>https://www.businesstimes.com.sg/opinion-features/features/us-reits-singapore</t>
   </si>
   <si>
@@ -5099,75 +5084,39 @@
     <t>https://www.edgeprop.sg/property-news/commercial-site-paya-lebar-central-sold</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/commercial-site-paya-lebar-central-sold</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/mcl-land-highest-bidder-land-parcel-jurong-west-site</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/mcl-land-highest-bidder-land-parcel-jurong-west-site</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/teho-backs-out-macpherson-deal</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/teho-backs-out-macpherson-deal</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/roxy-pacific%E2%80%99s-overseas-gambit</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/roxy-pacific%E2%80%99s-overseas-gambit</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/kingsford-bets-riverfront-location-upper-serangoon-view</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/kingsford-bets-riverfront-location-upper-serangoon-view</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/house-fortune</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/house-fortune</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/centrepoint-gets-50-million-makeover</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/centrepoint-gets-50-million-makeover</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/botanique-bartley-space-customisation</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/botanique-bartley-space-customisation</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/kingsford-waterbay-sells-140-units-launch-weekend</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/kingsford-waterbay-sells-140-units-launch-weekend</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/capri-fraser-sold-frasers-centrepoint-2034-mil</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/capri-fraser-sold-frasers-centrepoint-2034-mil</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/finance-broker-ultra-rich</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/finance-broker-ultra-rich</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/north-park-residences-set-benchmark-projects-yishun-19768-0</t>
   </si>
   <si>
-    <t>failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/north-park-residences-set-benchmark-projects-yishun-19768-0</t>
-  </si>
-  <si>
     <t>https://www.edgeprop.sg/property-news/slower-sales-and-launches-due-june-holidays</t>
   </si>
   <si>
@@ -6981,6 +6930,48 @@
   </si>
   <si>
     <t>2019-09-10T23:05:20+08:00</t>
+  </si>
+  <si>
+    <t>2019-11-22T07:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2019-12-29T06:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2016-04-29T10:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2017-12-27T09:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2019-02-26T11:03:00+08:00</t>
+  </si>
+  <si>
+    <t>2015-04-01T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2015-03-16T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2015-02-16T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2015-03-02T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2015-03-24T09:11:11+08:00</t>
+  </si>
+  <si>
+    <t>2015-03-16T15:26:27+08:00</t>
+  </si>
+  <si>
+    <t>2015-03-19T17:59:54+08:00&gt;</t>
+  </si>
+  <si>
+    <t>2015-03-23T00:00:00+08:00</t>
+  </si>
+  <si>
+    <t>2015-03-30T00:00:00+08:00</t>
   </si>
 </sst>
 </file>
@@ -14083,11 +14074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C497"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14106,7 +14096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1183</v>
       </c>
@@ -14117,7 +14107,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1185</v>
       </c>
@@ -14128,7 +14118,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1187</v>
       </c>
@@ -14139,7 +14129,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1189</v>
       </c>
@@ -14150,7 +14140,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1191</v>
       </c>
@@ -14161,7 +14151,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1193</v>
       </c>
@@ -14172,7 +14162,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1195</v>
       </c>
@@ -14183,7 +14173,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1197</v>
       </c>
@@ -14194,7 +14184,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1199</v>
       </c>
@@ -14205,7 +14195,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1201</v>
       </c>
@@ -14216,7 +14206,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1203</v>
       </c>
@@ -14227,7 +14217,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1205</v>
       </c>
@@ -14238,7 +14228,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1207</v>
       </c>
@@ -14249,7 +14239,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1209</v>
       </c>
@@ -14260,7 +14250,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1211</v>
       </c>
@@ -14271,7 +14261,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1213</v>
       </c>
@@ -14282,7 +14272,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1215</v>
       </c>
@@ -14293,7 +14283,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1217</v>
       </c>
@@ -14304,7 +14294,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1219</v>
       </c>
@@ -14315,7 +14305,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1221</v>
       </c>
@@ -14323,10 +14313,10 @@
         <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1222</v>
       </c>
@@ -14337,7 +14327,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1224</v>
       </c>
@@ -14348,7 +14338,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1226</v>
       </c>
@@ -14359,7 +14349,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1228</v>
       </c>
@@ -14370,7 +14360,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1230</v>
       </c>
@@ -14381,7 +14371,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1232</v>
       </c>
@@ -14392,7 +14382,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1234</v>
       </c>
@@ -14403,7 +14393,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1236</v>
       </c>
@@ -14414,7 +14404,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1238</v>
       </c>
@@ -14425,7 +14415,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1240</v>
       </c>
@@ -14436,7 +14426,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1242</v>
       </c>
@@ -14447,7 +14437,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1244</v>
       </c>
@@ -14458,7 +14448,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1246</v>
       </c>
@@ -14469,7 +14459,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1248</v>
       </c>
@@ -14480,7 +14470,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1250</v>
       </c>
@@ -14491,7 +14481,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1252</v>
       </c>
@@ -14502,7 +14492,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1254</v>
       </c>
@@ -14513,7 +14503,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1256</v>
       </c>
@@ -14524,7 +14514,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1258</v>
       </c>
@@ -14535,7 +14525,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1260</v>
       </c>
@@ -14546,7 +14536,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1262</v>
       </c>
@@ -14557,7 +14547,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1264</v>
       </c>
@@ -14568,7 +14558,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1266</v>
       </c>
@@ -14576,10 +14566,10 @@
         <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1267</v>
       </c>
@@ -14590,7 +14580,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1269</v>
       </c>
@@ -14601,7 +14591,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1271</v>
       </c>
@@ -14612,7 +14602,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1273</v>
       </c>
@@ -14623,7 +14613,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1275</v>
       </c>
@@ -14631,10 +14621,10 @@
         <v>301</v>
       </c>
       <c r="C49" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1276</v>
       </c>
@@ -14645,7 +14635,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1278</v>
       </c>
@@ -14656,7 +14646,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1280</v>
       </c>
@@ -14667,7 +14657,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1282</v>
       </c>
@@ -14678,7 +14668,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1284</v>
       </c>
@@ -14689,7 +14679,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1286</v>
       </c>
@@ -14700,7 +14690,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1288</v>
       </c>
@@ -14711,7 +14701,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1290</v>
       </c>
@@ -14722,7 +14712,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1292</v>
       </c>
@@ -14733,7 +14723,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1294</v>
       </c>
@@ -14744,7 +14734,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1296</v>
       </c>
@@ -14755,7 +14745,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1298</v>
       </c>
@@ -14766,7 +14756,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1299</v>
       </c>
@@ -14777,7 +14767,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1301</v>
       </c>
@@ -14788,7 +14778,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1303</v>
       </c>
@@ -14799,7 +14789,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1304</v>
       </c>
@@ -14807,10 +14797,10 @@
         <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1305</v>
       </c>
@@ -14821,7 +14811,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1307</v>
       </c>
@@ -14832,7 +14822,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1309</v>
       </c>
@@ -14843,7 +14833,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1311</v>
       </c>
@@ -14854,7 +14844,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1313</v>
       </c>
@@ -14862,10 +14852,10 @@
         <v>301</v>
       </c>
       <c r="C70" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1314</v>
       </c>
@@ -14876,7 +14866,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1316</v>
       </c>
@@ -14887,7 +14877,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1318</v>
       </c>
@@ -14898,7 +14888,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1320</v>
       </c>
@@ -14909,7 +14899,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1322</v>
       </c>
@@ -14920,7 +14910,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1324</v>
       </c>
@@ -14931,7 +14921,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1326</v>
       </c>
@@ -14942,7 +14932,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1328</v>
       </c>
@@ -14953,7 +14943,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1330</v>
       </c>
@@ -14964,7 +14954,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1332</v>
       </c>
@@ -14975,7 +14965,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1334</v>
       </c>
@@ -14986,7 +14976,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1336</v>
       </c>
@@ -14997,7 +14987,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1338</v>
       </c>
@@ -15008,7 +14998,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1340</v>
       </c>
@@ -15019,7 +15009,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1342</v>
       </c>
@@ -15030,7 +15020,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1344</v>
       </c>
@@ -15041,7 +15031,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1346</v>
       </c>
@@ -15052,7 +15042,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1348</v>
       </c>
@@ -15063,7 +15053,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1350</v>
       </c>
@@ -15074,7 +15064,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1352</v>
       </c>
@@ -15082,10 +15072,10 @@
         <v>301</v>
       </c>
       <c r="C90" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1353</v>
       </c>
@@ -15096,7 +15086,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1355</v>
       </c>
@@ -15107,7 +15097,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1356</v>
       </c>
@@ -15118,7 +15108,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1358</v>
       </c>
@@ -15129,7 +15119,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1360</v>
       </c>
@@ -15140,7 +15130,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1362</v>
       </c>
@@ -15151,7 +15141,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1364</v>
       </c>
@@ -15162,7 +15152,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1366</v>
       </c>
@@ -15173,7 +15163,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1368</v>
       </c>
@@ -15181,10 +15171,10 @@
         <v>301</v>
       </c>
       <c r="C99" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1369</v>
       </c>
@@ -15195,7 +15185,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1371</v>
       </c>
@@ -15206,7 +15196,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1373</v>
       </c>
@@ -15217,7 +15207,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1375</v>
       </c>
@@ -15228,7 +15218,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1377</v>
       </c>
@@ -15239,7 +15229,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1379</v>
       </c>
@@ -15250,7 +15240,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1381</v>
       </c>
@@ -15261,7 +15251,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1383</v>
       </c>
@@ -15272,7 +15262,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1385</v>
       </c>
@@ -15283,7 +15273,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1387</v>
       </c>
@@ -15294,7 +15284,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1389</v>
       </c>
@@ -15305,7 +15295,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1391</v>
       </c>
@@ -15316,7 +15306,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1393</v>
       </c>
@@ -15327,7 +15317,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1395</v>
       </c>
@@ -15338,7 +15328,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1397</v>
       </c>
@@ -15346,10 +15336,10 @@
         <v>301</v>
       </c>
       <c r="C114" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1398</v>
       </c>
@@ -15360,7 +15350,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1400</v>
       </c>
@@ -15368,10 +15358,10 @@
         <v>301</v>
       </c>
       <c r="C116" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1401</v>
       </c>
@@ -15382,7 +15372,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1403</v>
       </c>
@@ -15393,7 +15383,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1405</v>
       </c>
@@ -15404,7 +15394,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1407</v>
       </c>
@@ -15415,7 +15405,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1408</v>
       </c>
@@ -15426,7 +15416,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1409</v>
       </c>
@@ -15437,7 +15427,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1410</v>
       </c>
@@ -15448,7 +15438,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1411</v>
       </c>
@@ -15459,7 +15449,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1413</v>
       </c>
@@ -15470,7 +15460,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1415</v>
       </c>
@@ -15481,7 +15471,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1417</v>
       </c>
@@ -15492,7 +15482,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1419</v>
       </c>
@@ -15503,7 +15493,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1421</v>
       </c>
@@ -15514,7 +15504,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1423</v>
       </c>
@@ -15525,7 +15515,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1425</v>
       </c>
@@ -15533,10 +15523,10 @@
         <v>301</v>
       </c>
       <c r="C131" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1426</v>
       </c>
@@ -15547,7 +15537,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1428</v>
       </c>
@@ -15558,7 +15548,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1430</v>
       </c>
@@ -15569,7 +15559,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1432</v>
       </c>
@@ -15580,7 +15570,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1434</v>
       </c>
@@ -15591,7 +15581,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1436</v>
       </c>
@@ -15602,7 +15592,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1438</v>
       </c>
@@ -15613,7 +15603,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1439</v>
       </c>
@@ -15624,7 +15614,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1440</v>
       </c>
@@ -15635,7 +15625,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1441</v>
       </c>
@@ -15646,7 +15636,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1442</v>
       </c>
@@ -15657,7 +15647,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1444</v>
       </c>
@@ -15668,7 +15658,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1446</v>
       </c>
@@ -15679,7 +15669,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1448</v>
       </c>
@@ -15687,10 +15677,10 @@
         <v>301</v>
       </c>
       <c r="C145" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1449</v>
       </c>
@@ -15701,7 +15691,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1451</v>
       </c>
@@ -15712,7 +15702,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1453</v>
       </c>
@@ -15723,7 +15713,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1455</v>
       </c>
@@ -15734,7 +15724,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1457</v>
       </c>
@@ -15745,7 +15735,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1459</v>
       </c>
@@ -15756,7 +15746,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1460</v>
       </c>
@@ -15767,7 +15757,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1462</v>
       </c>
@@ -15775,10 +15765,10 @@
         <v>301</v>
       </c>
       <c r="C153" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1463</v>
       </c>
@@ -15789,7 +15779,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1465</v>
       </c>
@@ -15800,7 +15790,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1467</v>
       </c>
@@ -15811,7 +15801,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1469</v>
       </c>
@@ -15822,7 +15812,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1471</v>
       </c>
@@ -15833,7 +15823,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1473</v>
       </c>
@@ -15844,7 +15834,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1475</v>
       </c>
@@ -15855,7 +15845,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1477</v>
       </c>
@@ -15866,7 +15856,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1479</v>
       </c>
@@ -15877,7 +15867,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1481</v>
       </c>
@@ -15888,7 +15878,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1483</v>
       </c>
@@ -15899,7 +15889,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1485</v>
       </c>
@@ -15910,7 +15900,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1487</v>
       </c>
@@ -15921,7 +15911,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1489</v>
       </c>
@@ -15932,7 +15922,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1491</v>
       </c>
@@ -15943,7 +15933,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1493</v>
       </c>
@@ -15954,7 +15944,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1495</v>
       </c>
@@ -15965,7 +15955,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1497</v>
       </c>
@@ -15976,7 +15966,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1499</v>
       </c>
@@ -15984,10 +15974,10 @@
         <v>301</v>
       </c>
       <c r="C172" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1500</v>
       </c>
@@ -15998,7 +15988,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1502</v>
       </c>
@@ -16009,7 +15999,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1504</v>
       </c>
@@ -16020,7 +16010,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1506</v>
       </c>
@@ -16031,7 +16021,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1508</v>
       </c>
@@ -16042,7 +16032,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1510</v>
       </c>
@@ -16061,3749 +16051,3509 @@
         <v>301</v>
       </c>
       <c r="C179" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="B180" t="s">
+        <v>301</v>
+      </c>
+      <c r="C180" t="s">
         <v>1514</v>
       </c>
-      <c r="B180" t="s">
-        <v>301</v>
-      </c>
-      <c r="C180" t="s">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B181" t="s">
+        <v>301</v>
+      </c>
+      <c r="C181" t="s">
         <v>1516</v>
-      </c>
-      <c r="B181" t="s">
-        <v>301</v>
-      </c>
-      <c r="C181" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B182" t="s">
+        <v>301</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>1518</v>
       </c>
-      <c r="B182" t="s">
-        <v>301</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B183" t="s">
+        <v>301</v>
+      </c>
+      <c r="C183" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>1520</v>
       </c>
-      <c r="B183" t="s">
-        <v>301</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B184" t="s">
+        <v>301</v>
+      </c>
+      <c r="C184" t="s">
         <v>1521</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>1522</v>
       </c>
-      <c r="B184" t="s">
-        <v>301</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B185" t="s">
+        <v>301</v>
+      </c>
+      <c r="C185" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>1524</v>
       </c>
-      <c r="B185" t="s">
-        <v>301</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B186" t="s">
+        <v>301</v>
+      </c>
+      <c r="C186" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>1526</v>
-      </c>
-      <c r="B186" t="s">
-        <v>301</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>1528</v>
       </c>
       <c r="B187" t="s">
         <v>603</v>
       </c>
       <c r="C187" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B188" t="s">
         <v>603</v>
       </c>
       <c r="C188" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B189" t="s">
         <v>603</v>
       </c>
       <c r="C189" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B190" t="s">
         <v>603</v>
       </c>
       <c r="C190" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B191" t="s">
         <v>603</v>
       </c>
       <c r="C191" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B192" t="s">
         <v>603</v>
       </c>
       <c r="C192" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B193" t="s">
         <v>603</v>
       </c>
       <c r="C193" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B194" t="s">
         <v>603</v>
       </c>
       <c r="C194" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B195" t="s">
         <v>603</v>
       </c>
       <c r="C195" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B196" t="s">
         <v>603</v>
       </c>
       <c r="C196" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B197" t="s">
         <v>603</v>
       </c>
       <c r="C197" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B198" t="s">
         <v>603</v>
       </c>
       <c r="C198" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B199" t="s">
         <v>603</v>
       </c>
       <c r="C199" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B200" t="s">
         <v>603</v>
       </c>
       <c r="C200" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B201" t="s">
         <v>603</v>
       </c>
       <c r="C201" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B202" t="s">
         <v>603</v>
       </c>
       <c r="C202" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B203" t="s">
         <v>603</v>
       </c>
       <c r="C203" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B204" t="s">
         <v>603</v>
       </c>
       <c r="C204" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B205" t="s">
         <v>603</v>
       </c>
       <c r="C205" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="B206" t="s">
         <v>603</v>
       </c>
       <c r="C206" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="B207" t="s">
         <v>603</v>
       </c>
       <c r="C207" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B208" t="s">
         <v>603</v>
       </c>
       <c r="C208" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="B209" t="s">
         <v>603</v>
       </c>
       <c r="C209" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="B210" t="s">
         <v>603</v>
       </c>
       <c r="C210" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="B211" t="s">
         <v>603</v>
       </c>
       <c r="C211" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B212" t="s">
         <v>603</v>
       </c>
       <c r="C212" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="B213" t="s">
         <v>603</v>
       </c>
       <c r="C213" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="B214" t="s">
         <v>603</v>
       </c>
       <c r="C214" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B215" t="s">
         <v>603</v>
       </c>
       <c r="C215" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B216" t="s">
         <v>603</v>
       </c>
       <c r="C216" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B217" t="s">
         <v>603</v>
       </c>
       <c r="C217" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B218" t="s">
         <v>603</v>
       </c>
       <c r="C218" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B219" t="s">
         <v>603</v>
       </c>
       <c r="C219" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B220" t="s">
         <v>603</v>
       </c>
       <c r="C220" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B221" t="s">
         <v>603</v>
       </c>
       <c r="C221" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B222" t="s">
         <v>603</v>
       </c>
       <c r="C222" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B223" t="s">
         <v>603</v>
       </c>
       <c r="C223" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="B224" t="s">
         <v>603</v>
       </c>
       <c r="C224" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="B225" t="s">
         <v>603</v>
       </c>
       <c r="C225" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B226" t="s">
         <v>603</v>
       </c>
       <c r="C226" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B227" t="s">
         <v>603</v>
       </c>
       <c r="C227" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B228" t="s">
         <v>603</v>
       </c>
       <c r="C228" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B229" t="s">
         <v>603</v>
       </c>
       <c r="C229" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B230" t="s">
         <v>603</v>
       </c>
       <c r="C230" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B231" t="s">
         <v>603</v>
       </c>
       <c r="C231" t="s">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="B232" t="s">
         <v>603</v>
       </c>
       <c r="C232" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="B233" t="s">
         <v>603</v>
       </c>
       <c r="C233" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="B234" t="s">
         <v>603</v>
       </c>
       <c r="C234" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="B235" t="s">
         <v>603</v>
       </c>
       <c r="C235" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="B236" t="s">
         <v>603</v>
       </c>
       <c r="C236" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="B237" t="s">
         <v>603</v>
       </c>
       <c r="C237" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="B238" t="s">
         <v>603</v>
       </c>
       <c r="C238" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="B239" t="s">
         <v>603</v>
       </c>
       <c r="C239" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="B240" t="s">
         <v>603</v>
       </c>
       <c r="C240" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="B241" t="s">
         <v>603</v>
       </c>
       <c r="C241" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="B242" t="s">
         <v>603</v>
       </c>
       <c r="C242" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="B243" t="s">
         <v>603</v>
       </c>
       <c r="C243" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="B244" t="s">
         <v>603</v>
       </c>
       <c r="C244" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="B245" t="s">
         <v>603</v>
       </c>
       <c r="C245" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="B246" t="s">
         <v>603</v>
       </c>
       <c r="C246" t="s">
-        <v>1641</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="B247" t="s">
         <v>603</v>
       </c>
       <c r="C247" t="s">
-        <v>1643</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="B248" t="s">
         <v>603</v>
       </c>
       <c r="C248" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="B249" t="s">
         <v>603</v>
       </c>
       <c r="C249" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="B250" t="s">
         <v>603</v>
       </c>
       <c r="C250" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="B251" t="s">
         <v>603</v>
       </c>
       <c r="C251" t="s">
-        <v>1651</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="B252" t="s">
         <v>603</v>
       </c>
       <c r="C252" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="B253" t="s">
         <v>603</v>
       </c>
       <c r="C253" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B254" t="s">
         <v>603</v>
       </c>
       <c r="C254" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="B255" t="s">
         <v>603</v>
       </c>
       <c r="C255" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="B256" t="s">
         <v>603</v>
       </c>
       <c r="C256" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B257" t="s">
         <v>603</v>
       </c>
       <c r="C257" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="B258" t="s">
         <v>603</v>
       </c>
       <c r="C258" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
       <c r="B259" t="s">
         <v>603</v>
       </c>
       <c r="C259" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
       <c r="B260" t="s">
         <v>603</v>
       </c>
       <c r="C260" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
       <c r="B261" t="s">
         <v>603</v>
       </c>
       <c r="C261" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
       <c r="B262" t="s">
         <v>603</v>
       </c>
       <c r="C262" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="B263" t="s">
         <v>603</v>
       </c>
       <c r="C263" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
       <c r="B264" t="s">
         <v>603</v>
       </c>
       <c r="C264" t="s">
-        <v>1677</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="B265" t="s">
         <v>603</v>
       </c>
       <c r="C265" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="B266" t="s">
         <v>603</v>
       </c>
       <c r="C266" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
       <c r="B267" t="s">
         <v>603</v>
       </c>
       <c r="C267" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
       <c r="B268" t="s">
         <v>787</v>
       </c>
       <c r="C268" t="s">
-        <v>1685</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="B269" t="s">
         <v>787</v>
       </c>
       <c r="C269" t="s">
-        <v>1687</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="B270" t="s">
         <v>787</v>
       </c>
       <c r="C270" t="s">
-        <v>1689</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="B271" t="s">
         <v>787</v>
       </c>
       <c r="C271" t="s">
-        <v>1691</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="B272" t="s">
         <v>787</v>
       </c>
       <c r="C272" t="s">
-        <v>1693</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="B273" t="s">
         <v>787</v>
       </c>
       <c r="C273" t="s">
-        <v>1695</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="B274" t="s">
         <v>787</v>
       </c>
       <c r="C274" t="s">
-        <v>1697</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="B275" t="s">
         <v>787</v>
       </c>
       <c r="C275" t="s">
-        <v>1699</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="B276" t="s">
         <v>787</v>
       </c>
       <c r="C276" t="s">
-        <v>1701</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1702</v>
+        <v>1688</v>
       </c>
       <c r="B277" t="s">
         <v>787</v>
       </c>
       <c r="C277" t="s">
-        <v>1703</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1704</v>
+        <v>1689</v>
       </c>
       <c r="B278" t="s">
         <v>787</v>
       </c>
       <c r="C278" t="s">
-        <v>1705</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="B279" t="s">
         <v>787</v>
       </c>
       <c r="C279" t="s">
-        <v>1707</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1708</v>
+        <v>1691</v>
       </c>
       <c r="B280" t="s">
         <v>787</v>
       </c>
       <c r="C280" t="s">
-        <v>1709</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1710</v>
+        <v>1693</v>
       </c>
       <c r="B281" t="s">
         <v>787</v>
       </c>
       <c r="C281" t="s">
-        <v>1711</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1712</v>
+        <v>1695</v>
       </c>
       <c r="B282" t="s">
         <v>787</v>
       </c>
       <c r="C282" t="s">
-        <v>1713</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1714</v>
+        <v>1697</v>
       </c>
       <c r="B283" t="s">
         <v>787</v>
       </c>
       <c r="C283" t="s">
-        <v>1715</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1716</v>
+        <v>1699</v>
       </c>
       <c r="B284" t="s">
         <v>787</v>
       </c>
       <c r="C284" t="s">
-        <v>1717</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1718</v>
+        <v>1701</v>
       </c>
       <c r="B285" t="s">
         <v>787</v>
       </c>
       <c r="C285" t="s">
-        <v>1719</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1720</v>
+        <v>1703</v>
       </c>
       <c r="B286" t="s">
         <v>787</v>
       </c>
       <c r="C286" t="s">
-        <v>1721</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1722</v>
+        <v>1705</v>
       </c>
       <c r="B287" t="s">
         <v>787</v>
       </c>
       <c r="C287" t="s">
-        <v>1723</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1724</v>
+        <v>1707</v>
       </c>
       <c r="B288" t="s">
         <v>787</v>
       </c>
       <c r="C288" t="s">
-        <v>1725</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1726</v>
+        <v>1709</v>
       </c>
       <c r="B289" t="s">
         <v>787</v>
       </c>
       <c r="C289" t="s">
-        <v>1727</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1728</v>
+        <v>1711</v>
       </c>
       <c r="B290" t="s">
         <v>787</v>
       </c>
       <c r="C290" t="s">
-        <v>1729</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1730</v>
+        <v>1713</v>
       </c>
       <c r="B291" t="s">
         <v>787</v>
       </c>
       <c r="C291" t="s">
-        <v>1731</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1732</v>
+        <v>1715</v>
       </c>
       <c r="B292" t="s">
         <v>787</v>
       </c>
       <c r="C292" t="s">
-        <v>1733</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1734</v>
+        <v>1717</v>
       </c>
       <c r="B293" t="s">
         <v>787</v>
       </c>
       <c r="C293" t="s">
-        <v>1735</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1736</v>
+        <v>1719</v>
       </c>
       <c r="B294" t="s">
         <v>787</v>
       </c>
       <c r="C294" t="s">
-        <v>1737</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1738</v>
+        <v>1721</v>
       </c>
       <c r="B295" t="s">
         <v>787</v>
       </c>
       <c r="C295" t="s">
-        <v>1739</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1740</v>
+        <v>1723</v>
       </c>
       <c r="B296" t="s">
         <v>787</v>
       </c>
       <c r="C296" t="s">
-        <v>1741</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1742</v>
+        <v>1725</v>
       </c>
       <c r="B297" t="s">
         <v>787</v>
       </c>
       <c r="C297" t="s">
-        <v>1743</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1744</v>
+        <v>1727</v>
       </c>
       <c r="B298" t="s">
         <v>787</v>
       </c>
       <c r="C298" t="s">
-        <v>1745</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1746</v>
+        <v>1729</v>
       </c>
       <c r="B299" t="s">
         <v>787</v>
       </c>
       <c r="C299" t="s">
-        <v>1747</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1748</v>
+        <v>1731</v>
       </c>
       <c r="B300" t="s">
         <v>787</v>
       </c>
       <c r="C300" t="s">
-        <v>1749</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1750</v>
+        <v>1733</v>
       </c>
       <c r="B301" t="s">
         <v>787</v>
       </c>
       <c r="C301" t="s">
-        <v>1751</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1752</v>
+        <v>1735</v>
       </c>
       <c r="B302" t="s">
         <v>787</v>
       </c>
       <c r="C302" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="B303" t="s">
         <v>787</v>
       </c>
       <c r="C303" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
       <c r="B304" t="s">
         <v>787</v>
       </c>
       <c r="C304" t="s">
-        <v>1757</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1758</v>
+        <v>1741</v>
       </c>
       <c r="B305" t="s">
         <v>787</v>
       </c>
       <c r="C305" t="s">
-        <v>1759</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
       <c r="B306" t="s">
         <v>787</v>
       </c>
       <c r="C306" t="s">
-        <v>1761</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
       <c r="B307" t="s">
         <v>787</v>
       </c>
       <c r="C307" t="s">
-        <v>1763</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1764</v>
+        <v>1747</v>
       </c>
       <c r="B308" t="s">
         <v>787</v>
       </c>
       <c r="C308" t="s">
-        <v>1765</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1766</v>
+        <v>1749</v>
       </c>
       <c r="B309" t="s">
         <v>787</v>
       </c>
       <c r="C309" t="s">
-        <v>1767</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1768</v>
+        <v>1751</v>
       </c>
       <c r="B310" t="s">
         <v>787</v>
       </c>
       <c r="C310" t="s">
-        <v>1769</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1770</v>
+        <v>1753</v>
       </c>
       <c r="B311" t="s">
         <v>787</v>
       </c>
       <c r="C311" t="s">
-        <v>1771</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1772</v>
+        <v>1755</v>
       </c>
       <c r="B312" t="s">
         <v>787</v>
       </c>
       <c r="C312" t="s">
-        <v>1773</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1774</v>
+        <v>1757</v>
       </c>
       <c r="B313" t="s">
         <v>787</v>
       </c>
       <c r="C313" t="s">
-        <v>1775</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1776</v>
+        <v>1759</v>
       </c>
       <c r="B314" t="s">
         <v>787</v>
       </c>
       <c r="C314" t="s">
-        <v>1777</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1778</v>
+        <v>1761</v>
       </c>
       <c r="B315" t="s">
         <v>787</v>
       </c>
       <c r="C315" t="s">
-        <v>1779</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1780</v>
+        <v>1763</v>
       </c>
       <c r="B316" t="s">
         <v>787</v>
       </c>
       <c r="C316" t="s">
-        <v>1781</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1782</v>
+        <v>1765</v>
       </c>
       <c r="B317" t="s">
         <v>787</v>
       </c>
       <c r="C317" t="s">
-        <v>1783</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1784</v>
+        <v>1767</v>
       </c>
       <c r="B318" t="s">
         <v>787</v>
       </c>
       <c r="C318" t="s">
-        <v>1785</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1786</v>
+        <v>1769</v>
       </c>
       <c r="B319" t="s">
         <v>787</v>
       </c>
       <c r="C319" t="s">
-        <v>1787</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1788</v>
+        <v>1771</v>
       </c>
       <c r="B320" t="s">
         <v>787</v>
       </c>
       <c r="C320" t="s">
-        <v>1789</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1790</v>
+        <v>1773</v>
       </c>
       <c r="B321" t="s">
         <v>787</v>
       </c>
       <c r="C321" t="s">
-        <v>1791</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1792</v>
+        <v>1775</v>
       </c>
       <c r="B322" t="s">
         <v>787</v>
       </c>
       <c r="C322" t="s">
-        <v>1793</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1794</v>
+        <v>1777</v>
       </c>
       <c r="B323" t="s">
         <v>787</v>
       </c>
       <c r="C323" t="s">
-        <v>1795</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1796</v>
+        <v>1779</v>
       </c>
       <c r="B324" t="s">
         <v>787</v>
       </c>
       <c r="C324" t="s">
-        <v>1797</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1798</v>
+        <v>1781</v>
       </c>
       <c r="B325" t="s">
         <v>787</v>
       </c>
       <c r="C325" t="s">
-        <v>1799</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1800</v>
+        <v>1783</v>
       </c>
       <c r="B326" t="s">
         <v>787</v>
       </c>
       <c r="C326" t="s">
-        <v>1801</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1802</v>
+        <v>1785</v>
       </c>
       <c r="B327" t="s">
         <v>787</v>
       </c>
       <c r="C327" t="s">
-        <v>1803</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1804</v>
+        <v>1787</v>
       </c>
       <c r="B328" t="s">
         <v>787</v>
       </c>
       <c r="C328" t="s">
-        <v>1805</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1806</v>
+        <v>1789</v>
       </c>
       <c r="B329" t="s">
         <v>787</v>
       </c>
       <c r="C329" t="s">
-        <v>1807</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1808</v>
+        <v>1791</v>
       </c>
       <c r="B330" t="s">
         <v>787</v>
       </c>
       <c r="C330" t="s">
-        <v>1809</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1810</v>
+        <v>1793</v>
       </c>
       <c r="B331" t="s">
         <v>787</v>
       </c>
       <c r="C331" t="s">
-        <v>1811</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1812</v>
+        <v>1795</v>
       </c>
       <c r="B332" t="s">
         <v>787</v>
       </c>
       <c r="C332" t="s">
-        <v>1813</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1814</v>
+        <v>1797</v>
       </c>
       <c r="B333" t="s">
         <v>787</v>
       </c>
       <c r="C333" t="s">
-        <v>1815</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1816</v>
+        <v>1799</v>
       </c>
       <c r="B334" t="s">
         <v>787</v>
       </c>
       <c r="C334" t="s">
-        <v>1817</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1818</v>
+        <v>1801</v>
       </c>
       <c r="B335" t="s">
         <v>787</v>
       </c>
       <c r="C335" t="s">
-        <v>1819</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1820</v>
+        <v>1803</v>
       </c>
       <c r="B336" t="s">
         <v>787</v>
       </c>
       <c r="C336" t="s">
-        <v>1821</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1822</v>
+        <v>1805</v>
       </c>
       <c r="B337" t="s">
         <v>787</v>
       </c>
       <c r="C337" t="s">
-        <v>1823</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1824</v>
+        <v>1807</v>
       </c>
       <c r="B338" t="s">
         <v>787</v>
       </c>
       <c r="C338" t="s">
-        <v>1825</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1826</v>
+        <v>1809</v>
       </c>
       <c r="B339" t="s">
         <v>787</v>
       </c>
       <c r="C339" t="s">
-        <v>1827</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1828</v>
+        <v>1811</v>
       </c>
       <c r="B340" t="s">
         <v>787</v>
       </c>
       <c r="C340" t="s">
-        <v>1829</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1830</v>
+        <v>1813</v>
       </c>
       <c r="B341" t="s">
         <v>787</v>
       </c>
       <c r="C341" t="s">
-        <v>1831</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1832</v>
+        <v>1815</v>
       </c>
       <c r="B342" t="s">
         <v>787</v>
       </c>
       <c r="C342" t="s">
-        <v>1833</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1834</v>
+        <v>1817</v>
       </c>
       <c r="B343" t="s">
         <v>787</v>
       </c>
       <c r="C343" t="s">
-        <v>1835</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1836</v>
+        <v>1819</v>
       </c>
       <c r="B344" t="s">
         <v>787</v>
       </c>
       <c r="C344" t="s">
-        <v>1837</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1838</v>
+        <v>1821</v>
       </c>
       <c r="B345" t="s">
         <v>787</v>
       </c>
       <c r="C345" t="s">
-        <v>1839</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1840</v>
+        <v>1823</v>
       </c>
       <c r="B346" t="s">
         <v>787</v>
       </c>
       <c r="C346" t="s">
-        <v>1841</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1842</v>
+        <v>1825</v>
       </c>
       <c r="B347" t="s">
         <v>787</v>
       </c>
       <c r="C347" t="s">
-        <v>1843</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1844</v>
+        <v>1827</v>
       </c>
       <c r="B348" t="s">
         <v>787</v>
       </c>
       <c r="C348" t="s">
-        <v>1845</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1846</v>
+        <v>1829</v>
       </c>
       <c r="B349" t="s">
         <v>787</v>
       </c>
       <c r="C349" t="s">
-        <v>1847</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1848</v>
+        <v>1831</v>
       </c>
       <c r="B350" t="s">
         <v>787</v>
       </c>
       <c r="C350" t="s">
-        <v>1849</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1850</v>
+        <v>1833</v>
       </c>
       <c r="B351" t="s">
         <v>787</v>
       </c>
       <c r="C351" t="s">
-        <v>1851</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1852</v>
+        <v>1835</v>
       </c>
       <c r="B352" t="s">
         <v>787</v>
       </c>
       <c r="C352" t="s">
-        <v>1853</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1854</v>
+        <v>1837</v>
       </c>
       <c r="B353" t="s">
         <v>787</v>
       </c>
       <c r="C353" t="s">
-        <v>1855</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1856</v>
+        <v>1839</v>
       </c>
       <c r="B354" t="s">
         <v>787</v>
       </c>
       <c r="C354" t="s">
-        <v>1857</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1858</v>
+        <v>1841</v>
       </c>
       <c r="B355" t="s">
         <v>787</v>
       </c>
       <c r="C355" t="s">
-        <v>1859</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1860</v>
+        <v>1843</v>
       </c>
       <c r="B356" t="s">
         <v>787</v>
       </c>
       <c r="C356" t="s">
-        <v>1861</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1862</v>
+        <v>1845</v>
       </c>
       <c r="B357" t="s">
         <v>787</v>
       </c>
       <c r="C357" t="s">
-        <v>1863</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1864</v>
+        <v>1847</v>
       </c>
       <c r="B358" t="s">
         <v>787</v>
       </c>
       <c r="C358" t="s">
-        <v>1865</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1866</v>
+        <v>1849</v>
       </c>
       <c r="B359" t="s">
         <v>787</v>
       </c>
       <c r="C359" t="s">
-        <v>1867</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1868</v>
+        <v>1851</v>
       </c>
       <c r="B360" t="s">
         <v>787</v>
       </c>
       <c r="C360" t="s">
-        <v>1869</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1870</v>
+        <v>1853</v>
       </c>
       <c r="B361" t="s">
         <v>787</v>
       </c>
       <c r="C361" t="s">
-        <v>1871</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1872</v>
+        <v>1855</v>
       </c>
       <c r="B362" t="s">
         <v>787</v>
       </c>
       <c r="C362" t="s">
-        <v>1873</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1874</v>
+        <v>1857</v>
       </c>
       <c r="B363" t="s">
         <v>787</v>
       </c>
       <c r="C363" t="s">
-        <v>1875</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1876</v>
+        <v>1859</v>
       </c>
       <c r="B364" t="s">
         <v>787</v>
       </c>
       <c r="C364" t="s">
-        <v>1877</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1878</v>
+        <v>1861</v>
       </c>
       <c r="B365" t="s">
         <v>787</v>
       </c>
       <c r="C365" t="s">
-        <v>1879</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1880</v>
+        <v>1863</v>
       </c>
       <c r="B366" t="s">
         <v>787</v>
       </c>
       <c r="C366" t="s">
-        <v>1881</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1882</v>
+        <v>1865</v>
       </c>
       <c r="B367" t="s">
         <v>787</v>
       </c>
       <c r="C367" t="s">
-        <v>1883</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1884</v>
+        <v>1867</v>
       </c>
       <c r="B368" t="s">
         <v>787</v>
       </c>
       <c r="C368" t="s">
-        <v>1885</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1886</v>
+        <v>1869</v>
       </c>
       <c r="B369" t="s">
         <v>787</v>
       </c>
       <c r="C369" t="s">
-        <v>1887</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1888</v>
+        <v>1871</v>
       </c>
       <c r="B370" t="s">
         <v>787</v>
       </c>
       <c r="C370" t="s">
-        <v>1889</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
       <c r="B371" t="s">
         <v>787</v>
       </c>
       <c r="C371" t="s">
-        <v>1891</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1892</v>
+        <v>1875</v>
       </c>
       <c r="B372" t="s">
         <v>787</v>
       </c>
       <c r="C372" t="s">
-        <v>1893</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1894</v>
+        <v>1877</v>
       </c>
       <c r="B373" t="s">
         <v>787</v>
       </c>
       <c r="C373" t="s">
-        <v>1895</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1896</v>
+        <v>1879</v>
       </c>
       <c r="B374" t="s">
         <v>787</v>
       </c>
       <c r="C374" t="s">
-        <v>1897</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1898</v>
+        <v>1881</v>
       </c>
       <c r="B375" t="s">
         <v>787</v>
       </c>
       <c r="C375" t="s">
-        <v>1899</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1900</v>
+        <v>1883</v>
       </c>
       <c r="B376" t="s">
         <v>787</v>
       </c>
       <c r="C376" t="s">
-        <v>1901</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1902</v>
+        <v>1885</v>
       </c>
       <c r="B377" t="s">
         <v>787</v>
       </c>
       <c r="C377" t="s">
-        <v>1903</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1904</v>
+        <v>1887</v>
       </c>
       <c r="B378" t="s">
         <v>787</v>
       </c>
       <c r="C378" t="s">
-        <v>1905</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1906</v>
+        <v>1889</v>
       </c>
       <c r="B379" t="s">
         <v>787</v>
       </c>
       <c r="C379" t="s">
-        <v>1907</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1908</v>
+        <v>1891</v>
       </c>
       <c r="B380" t="s">
         <v>787</v>
       </c>
       <c r="C380" t="s">
-        <v>1909</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1910</v>
+        <v>1893</v>
       </c>
       <c r="B381" t="s">
         <v>787</v>
       </c>
       <c r="C381" t="s">
-        <v>1911</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1912</v>
+        <v>1895</v>
       </c>
       <c r="B382" t="s">
         <v>787</v>
       </c>
       <c r="C382" t="s">
-        <v>1913</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1914</v>
+        <v>1897</v>
       </c>
       <c r="B383" t="s">
         <v>787</v>
       </c>
       <c r="C383" t="s">
-        <v>1915</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1916</v>
+        <v>1899</v>
       </c>
       <c r="B384" t="s">
         <v>787</v>
       </c>
       <c r="C384" t="s">
-        <v>1917</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1918</v>
+        <v>1901</v>
       </c>
       <c r="B385" t="s">
         <v>787</v>
       </c>
       <c r="C385" t="s">
-        <v>1919</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>1920</v>
+        <v>1903</v>
       </c>
       <c r="B386" t="s">
         <v>787</v>
       </c>
       <c r="C386" t="s">
-        <v>1921</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>1922</v>
+        <v>1905</v>
       </c>
       <c r="B387" t="s">
         <v>787</v>
       </c>
       <c r="C387" t="s">
-        <v>1923</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>1924</v>
+        <v>1907</v>
       </c>
       <c r="B388" t="s">
         <v>787</v>
       </c>
       <c r="C388" t="s">
-        <v>1925</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
       <c r="B389" t="s">
         <v>787</v>
       </c>
       <c r="C389" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
       <c r="B390" t="s">
         <v>787</v>
       </c>
       <c r="C390" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>1930</v>
+        <v>1913</v>
       </c>
       <c r="B391" t="s">
         <v>787</v>
       </c>
       <c r="C391" t="s">
-        <v>1931</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>1932</v>
+        <v>1915</v>
       </c>
       <c r="B392" t="s">
         <v>787</v>
       </c>
       <c r="C392" t="s">
-        <v>1933</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>1934</v>
+        <v>1917</v>
       </c>
       <c r="B393" t="s">
         <v>787</v>
       </c>
       <c r="C393" t="s">
-        <v>1935</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1936</v>
+        <v>1919</v>
       </c>
       <c r="B394" t="s">
         <v>787</v>
       </c>
       <c r="C394" t="s">
-        <v>1937</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>1938</v>
+        <v>1921</v>
       </c>
       <c r="B395" t="s">
         <v>787</v>
       </c>
       <c r="C395" t="s">
-        <v>1939</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>1940</v>
+        <v>1923</v>
       </c>
       <c r="B396" t="s">
         <v>787</v>
       </c>
       <c r="C396" t="s">
-        <v>1941</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>1942</v>
+        <v>1925</v>
       </c>
       <c r="B397" t="s">
         <v>787</v>
       </c>
       <c r="C397" t="s">
-        <v>1943</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>1944</v>
+        <v>1927</v>
       </c>
       <c r="B398" t="s">
         <v>787</v>
       </c>
       <c r="C398" t="s">
-        <v>1945</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>1946</v>
+        <v>1929</v>
       </c>
       <c r="B399" t="s">
         <v>787</v>
       </c>
       <c r="C399" t="s">
-        <v>1947</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>1948</v>
+        <v>1931</v>
       </c>
       <c r="B400" t="s">
         <v>787</v>
       </c>
       <c r="C400" t="s">
-        <v>1949</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>1950</v>
+        <v>1933</v>
       </c>
       <c r="B401" t="s">
         <v>787</v>
       </c>
       <c r="C401" t="s">
-        <v>1951</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>1952</v>
+        <v>1935</v>
       </c>
       <c r="B402" t="s">
         <v>787</v>
       </c>
       <c r="C402" t="s">
-        <v>1953</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>1954</v>
+        <v>1937</v>
       </c>
       <c r="B403" t="s">
         <v>787</v>
       </c>
       <c r="C403" t="s">
-        <v>1955</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1956</v>
+        <v>1939</v>
       </c>
       <c r="B404" t="s">
         <v>787</v>
       </c>
       <c r="C404" t="s">
-        <v>1957</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>1958</v>
+        <v>1941</v>
       </c>
       <c r="B405" t="s">
         <v>787</v>
       </c>
       <c r="C405" t="s">
-        <v>1959</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1960</v>
+        <v>1943</v>
       </c>
       <c r="B406" t="s">
         <v>787</v>
       </c>
       <c r="C406" t="s">
-        <v>1961</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>1962</v>
+        <v>1945</v>
       </c>
       <c r="B407" t="s">
         <v>787</v>
       </c>
       <c r="C407" t="s">
-        <v>1963</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>1964</v>
+        <v>1947</v>
       </c>
       <c r="B408" t="s">
         <v>787</v>
       </c>
       <c r="C408" t="s">
-        <v>1965</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>1966</v>
+        <v>1949</v>
       </c>
       <c r="B409" t="s">
         <v>787</v>
       </c>
       <c r="C409" t="s">
-        <v>1967</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>1968</v>
+        <v>1951</v>
       </c>
       <c r="B410" t="s">
         <v>787</v>
       </c>
       <c r="C410" t="s">
-        <v>1969</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1970</v>
+        <v>1953</v>
       </c>
       <c r="B411" t="s">
         <v>787</v>
       </c>
       <c r="C411" t="s">
-        <v>1971</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>1972</v>
+        <v>1955</v>
       </c>
       <c r="B412" t="s">
         <v>787</v>
       </c>
       <c r="C412" t="s">
-        <v>1973</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1974</v>
+        <v>1957</v>
       </c>
       <c r="B413" t="s">
         <v>787</v>
       </c>
       <c r="C413" t="s">
-        <v>1975</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1976</v>
+        <v>1959</v>
       </c>
       <c r="B414" t="s">
         <v>787</v>
       </c>
       <c r="C414" t="s">
-        <v>1977</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>1978</v>
+        <v>1961</v>
       </c>
       <c r="B415" t="s">
         <v>787</v>
       </c>
       <c r="C415" t="s">
-        <v>1979</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>1980</v>
+        <v>1963</v>
       </c>
       <c r="B416" t="s">
         <v>787</v>
       </c>
       <c r="C416" t="s">
-        <v>1981</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>1982</v>
+        <v>1965</v>
       </c>
       <c r="B417" t="s">
         <v>787</v>
       </c>
       <c r="C417" t="s">
-        <v>1983</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1984</v>
+        <v>1967</v>
       </c>
       <c r="B418" t="s">
         <v>787</v>
       </c>
       <c r="C418" t="s">
-        <v>1985</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1986</v>
+        <v>1969</v>
       </c>
       <c r="B419" t="s">
         <v>787</v>
       </c>
       <c r="C419" t="s">
-        <v>1987</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>1988</v>
+        <v>1971</v>
       </c>
       <c r="B420" t="s">
         <v>787</v>
       </c>
       <c r="C420" t="s">
-        <v>1989</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>1990</v>
+        <v>1973</v>
       </c>
       <c r="B421" t="s">
         <v>787</v>
       </c>
       <c r="C421" t="s">
-        <v>1991</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>1992</v>
+        <v>1975</v>
       </c>
       <c r="B422" t="s">
         <v>787</v>
       </c>
       <c r="C422" t="s">
-        <v>1993</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>1994</v>
+        <v>1977</v>
       </c>
       <c r="B423" t="s">
         <v>787</v>
       </c>
       <c r="C423" t="s">
-        <v>1995</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1996</v>
+        <v>1979</v>
       </c>
       <c r="B424" t="s">
         <v>787</v>
       </c>
       <c r="C424" t="s">
-        <v>1997</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1998</v>
+        <v>1981</v>
       </c>
       <c r="B425" t="s">
         <v>787</v>
       </c>
       <c r="C425" t="s">
-        <v>1999</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>2000</v>
+        <v>1983</v>
       </c>
       <c r="B426" t="s">
         <v>787</v>
       </c>
       <c r="C426" t="s">
-        <v>2001</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>2002</v>
+        <v>1985</v>
       </c>
       <c r="B427" t="s">
         <v>787</v>
       </c>
       <c r="C427" t="s">
-        <v>2003</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B428" t="s">
         <v>787</v>
       </c>
       <c r="C428" t="s">
-        <v>2005</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>2006</v>
+        <v>1989</v>
       </c>
       <c r="B429" t="s">
         <v>787</v>
       </c>
       <c r="C429" t="s">
-        <v>2007</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>2008</v>
+        <v>1991</v>
       </c>
       <c r="B430" t="s">
         <v>787</v>
       </c>
       <c r="C430" t="s">
-        <v>2009</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>2010</v>
+        <v>1993</v>
       </c>
       <c r="B431" t="s">
         <v>787</v>
       </c>
       <c r="C431" t="s">
-        <v>2011</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="B432" t="s">
         <v>787</v>
       </c>
       <c r="C432" t="s">
-        <v>2013</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>2014</v>
+        <v>1997</v>
       </c>
       <c r="B433" t="s">
         <v>787</v>
       </c>
       <c r="C433" t="s">
-        <v>2015</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="B434" t="s">
         <v>787</v>
       </c>
       <c r="C434" t="s">
-        <v>2017</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="B435" t="s">
         <v>787</v>
       </c>
       <c r="C435" t="s">
-        <v>2019</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="B436" t="s">
         <v>787</v>
       </c>
       <c r="C436" t="s">
-        <v>2021</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="B437" t="s">
         <v>787</v>
       </c>
       <c r="C437" t="s">
-        <v>2023</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>2024</v>
+        <v>2007</v>
       </c>
       <c r="B438" t="s">
         <v>787</v>
       </c>
       <c r="C438" t="s">
-        <v>2025</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>2026</v>
+        <v>2009</v>
       </c>
       <c r="B439" t="s">
         <v>787</v>
       </c>
       <c r="C439" t="s">
-        <v>2027</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>2028</v>
+        <v>2011</v>
       </c>
       <c r="B440" t="s">
         <v>787</v>
       </c>
       <c r="C440" t="s">
-        <v>2029</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>2030</v>
+        <v>2013</v>
       </c>
       <c r="B441" t="s">
         <v>787</v>
       </c>
       <c r="C441" t="s">
-        <v>2031</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>2032</v>
+        <v>2015</v>
       </c>
       <c r="B442" t="s">
         <v>787</v>
       </c>
       <c r="C442" t="s">
-        <v>2033</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>2034</v>
+        <v>2017</v>
       </c>
       <c r="B443" t="s">
         <v>787</v>
       </c>
       <c r="C443" t="s">
-        <v>2035</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>2036</v>
+        <v>2019</v>
       </c>
       <c r="B444" t="s">
         <v>787</v>
       </c>
       <c r="C444" t="s">
-        <v>2037</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>2038</v>
+        <v>2021</v>
       </c>
       <c r="B445" t="s">
         <v>787</v>
       </c>
       <c r="C445" t="s">
-        <v>2039</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>2040</v>
+        <v>2023</v>
       </c>
       <c r="B446" t="s">
         <v>787</v>
       </c>
       <c r="C446" t="s">
-        <v>2041</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>2042</v>
+        <v>2025</v>
       </c>
       <c r="B447" t="s">
         <v>787</v>
       </c>
       <c r="C447" t="s">
-        <v>2043</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>2044</v>
+        <v>2027</v>
       </c>
       <c r="B448" t="s">
         <v>787</v>
       </c>
       <c r="C448" t="s">
-        <v>2045</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>2046</v>
+        <v>2029</v>
       </c>
       <c r="B449" t="s">
         <v>787</v>
       </c>
       <c r="C449" t="s">
-        <v>2047</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>2048</v>
+        <v>2031</v>
       </c>
       <c r="B450" t="s">
         <v>787</v>
       </c>
       <c r="C450" t="s">
-        <v>2049</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>2050</v>
+        <v>2033</v>
       </c>
       <c r="B451" t="s">
         <v>787</v>
       </c>
       <c r="C451" t="s">
-        <v>2051</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>2052</v>
+        <v>2035</v>
       </c>
       <c r="B452" t="s">
         <v>787</v>
       </c>
       <c r="C452" t="s">
-        <v>2053</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>2054</v>
+        <v>2037</v>
       </c>
       <c r="B453" t="s">
         <v>787</v>
       </c>
       <c r="C453" t="s">
-        <v>2055</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>2056</v>
+        <v>2039</v>
       </c>
       <c r="B454" t="s">
         <v>787</v>
       </c>
       <c r="C454" t="s">
-        <v>2057</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>2058</v>
+        <v>2041</v>
       </c>
       <c r="B455" t="s">
         <v>787</v>
       </c>
       <c r="C455" t="s">
-        <v>2059</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>2060</v>
+        <v>2043</v>
       </c>
       <c r="B456" t="s">
         <v>787</v>
       </c>
       <c r="C456" t="s">
-        <v>2061</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>2062</v>
+        <v>2045</v>
       </c>
       <c r="B457" t="s">
         <v>787</v>
       </c>
       <c r="C457" t="s">
-        <v>2063</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>2064</v>
+        <v>2047</v>
       </c>
       <c r="B458" t="s">
         <v>787</v>
       </c>
       <c r="C458" t="s">
-        <v>2065</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="B459" t="s">
         <v>787</v>
       </c>
       <c r="C459" t="s">
-        <v>2067</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>2068</v>
+        <v>2051</v>
       </c>
       <c r="B460" t="s">
         <v>787</v>
       </c>
       <c r="C460" t="s">
-        <v>2069</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>2070</v>
+        <v>2053</v>
       </c>
       <c r="B461" t="s">
         <v>787</v>
       </c>
       <c r="C461" t="s">
-        <v>2071</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>2072</v>
+        <v>2055</v>
       </c>
       <c r="B462" t="s">
         <v>787</v>
       </c>
       <c r="C462" t="s">
-        <v>2073</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>2074</v>
+        <v>2057</v>
       </c>
       <c r="B463" t="s">
         <v>787</v>
       </c>
       <c r="C463" t="s">
-        <v>2075</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>2076</v>
+        <v>2059</v>
       </c>
       <c r="B464" t="s">
         <v>787</v>
       </c>
       <c r="C464" t="s">
-        <v>2077</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>2078</v>
+        <v>2061</v>
       </c>
       <c r="B465" t="s">
         <v>787</v>
       </c>
       <c r="C465" t="s">
-        <v>2079</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>2080</v>
+        <v>2063</v>
       </c>
       <c r="B466" t="s">
         <v>787</v>
       </c>
       <c r="C466" t="s">
-        <v>2081</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>2082</v>
+        <v>2065</v>
       </c>
       <c r="B467" t="s">
         <v>787</v>
       </c>
       <c r="C467" t="s">
-        <v>2083</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>2084</v>
+        <v>2067</v>
       </c>
       <c r="B468" t="s">
         <v>787</v>
       </c>
       <c r="C468" t="s">
-        <v>2085</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>2086</v>
+        <v>2069</v>
       </c>
       <c r="B469" t="s">
         <v>787</v>
       </c>
       <c r="C469" t="s">
-        <v>2087</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>2088</v>
+        <v>2071</v>
       </c>
       <c r="B470" t="s">
         <v>787</v>
       </c>
       <c r="C470" t="s">
-        <v>2089</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>2090</v>
+        <v>2073</v>
       </c>
       <c r="B471" t="s">
         <v>787</v>
       </c>
       <c r="C471" t="s">
-        <v>2091</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2092</v>
+        <v>2075</v>
       </c>
       <c r="B472" t="s">
         <v>787</v>
       </c>
       <c r="C472" t="s">
-        <v>2093</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>2094</v>
+        <v>2077</v>
       </c>
       <c r="B473" t="s">
         <v>787</v>
       </c>
       <c r="C473" t="s">
-        <v>2095</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>2096</v>
+        <v>2079</v>
       </c>
       <c r="B474" t="s">
         <v>787</v>
       </c>
       <c r="C474" t="s">
-        <v>2097</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>2098</v>
+        <v>2081</v>
       </c>
       <c r="B475" t="s">
         <v>787</v>
       </c>
       <c r="C475" t="s">
-        <v>2099</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>2100</v>
+        <v>2083</v>
       </c>
       <c r="B476" t="s">
         <v>787</v>
       </c>
       <c r="C476" t="s">
-        <v>2101</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>2102</v>
+        <v>2085</v>
       </c>
       <c r="B477" t="s">
         <v>787</v>
       </c>
       <c r="C477" t="s">
-        <v>2103</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2104</v>
+        <v>2087</v>
       </c>
       <c r="B478" t="s">
         <v>787</v>
       </c>
       <c r="C478" t="s">
-        <v>2105</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>2106</v>
+        <v>2089</v>
       </c>
       <c r="B479" t="s">
         <v>787</v>
       </c>
       <c r="C479" t="s">
-        <v>2107</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>2108</v>
+        <v>2091</v>
       </c>
       <c r="B480" t="s">
         <v>787</v>
       </c>
       <c r="C480" t="s">
-        <v>2109</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>2110</v>
+        <v>2093</v>
       </c>
       <c r="B481" t="s">
         <v>787</v>
       </c>
       <c r="C481" t="s">
-        <v>2111</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>2112</v>
+        <v>2095</v>
       </c>
       <c r="B482" t="s">
         <v>787</v>
       </c>
       <c r="C482" t="s">
-        <v>2113</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>2114</v>
+        <v>2097</v>
       </c>
       <c r="B483" t="s">
         <v>787</v>
       </c>
       <c r="C483" t="s">
-        <v>2115</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>2116</v>
+        <v>2099</v>
       </c>
       <c r="B484" t="s">
         <v>787</v>
       </c>
       <c r="C484" t="s">
-        <v>2117</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>2118</v>
+        <v>2101</v>
       </c>
       <c r="B485" t="s">
         <v>787</v>
       </c>
       <c r="C485" t="s">
-        <v>2119</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>2120</v>
+        <v>2103</v>
       </c>
       <c r="B486" t="s">
         <v>787</v>
       </c>
       <c r="C486" t="s">
-        <v>2121</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>2122</v>
+        <v>2105</v>
       </c>
       <c r="B487" t="s">
         <v>787</v>
       </c>
       <c r="C487" t="s">
-        <v>2123</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>2124</v>
+        <v>2107</v>
       </c>
       <c r="B488" t="s">
         <v>787</v>
       </c>
       <c r="C488" t="s">
-        <v>2125</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>2126</v>
+        <v>2109</v>
       </c>
       <c r="B489" t="s">
         <v>787</v>
       </c>
       <c r="C489" t="s">
-        <v>2127</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>2128</v>
+        <v>2111</v>
       </c>
       <c r="B490" t="s">
         <v>787</v>
       </c>
       <c r="C490" t="s">
-        <v>2129</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>2130</v>
+        <v>2113</v>
       </c>
       <c r="B491" t="s">
         <v>787</v>
       </c>
       <c r="C491" t="s">
-        <v>2131</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>2132</v>
+        <v>2115</v>
       </c>
       <c r="B492" t="s">
         <v>787</v>
       </c>
       <c r="C492" t="s">
-        <v>2133</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>2134</v>
+        <v>2117</v>
       </c>
       <c r="B493" t="s">
         <v>787</v>
       </c>
       <c r="C493" t="s">
-        <v>2135</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>2136</v>
+        <v>2119</v>
       </c>
       <c r="B494" t="s">
         <v>787</v>
       </c>
       <c r="C494" t="s">
-        <v>2137</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>2138</v>
+        <v>2121</v>
       </c>
       <c r="B495" t="s">
         <v>787</v>
       </c>
       <c r="C495" t="s">
-        <v>2139</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>2140</v>
+        <v>2123</v>
       </c>
       <c r="B496" t="s">
         <v>787</v>
       </c>
       <c r="C496" t="s">
-        <v>2141</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>2142</v>
+        <v>2125</v>
       </c>
       <c r="B497" t="s">
         <v>787</v>
       </c>
       <c r="C497" t="s">
-        <v>2143</v>
+        <v>2126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C497" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/commercial/chancery-court"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/commercial/foo-ann-building"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/commercial/oub-building"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/commercial/parc-esta"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/condo-apartment/kim-sia-court"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/condo-apartment/parc-regency"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/condo-apartment/the-atelier"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/hdb/25-ghim-moh-link"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/hdb/25-jalan-berseh"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/hdb/27-ghim-moh-link"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/industrial/general-magnetics-building"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/%E2%80%98-glass-house%E2%80%99-sale-72-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/10-reasons-why-interlace-not-your-typical-development"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/139-cecil-street-sale-218-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/14-mil-loss-reflections-keppel-bay"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/143-million-pair-freehold-shophouses-jalan-besar"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/63-lake-grande-sold-over-launch-weekend"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/69-industrial-units-kaki-bukit-sale-375-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/7-scariest-mistakes-home-buyers-make"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/77-robinson-road-sale-575-million"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/8-st-thomas-holds-its-ground"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/90-retail-space-hillion-mall-taken"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/act-doubles-down-us"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/activity-sky-vue-panorama"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/ageing-buildings-cbd-get-lifeline-0"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/amoy-street-shophouses-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/amoy-street-shophouses-sale-1499444-0"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/are-high-returns-and-%E2%80%98fuss-free%E2%80%99-investments-too-good-be-true"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/asia-square-tower-1-sets-record-deal"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/average-cbd-grade-office-rents-hit-10-year-high-2q2019"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/awards-kwek-cdl%E2%80%99s-journey-renewal-and-transformation"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/b2-industrial-site-wan-lee-road-sale-68-million"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/beach-road-shophouses-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/beacon-tanjong-pagar"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/below-1-million-one-bedder-novena"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/below-1-million-one-bedder-pasir-panjang"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/below-1-million-three-bedder-tanjong-pagar"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/big-box-building-jurong-east-put-sale-managers"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/botanique-bartley-space-customisation"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/boutique-developer-distress"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/boutique-developer%E2%80%99s-lament"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/bugis-point-market-595-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/bugis-revived-upcoming-completion-duo"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/bungalow-oei-tiong-ham-park-fetched-14-mil-profit"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/buying-opportunities-balmoral-area"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/capitaland-announces-plans-560-mil-new-funan-mall"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/capri-fraser-sold-frasers-centrepoint-2034-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/cascading-effect-highline-residences"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/cbre%E2%80%99s-martin-samworth-transcending-space"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/cdl-unveils-republic-plaza-after-70-mil-makeover"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/cdl%E2%80%99s-forest-woods-and-gramercy-park-steal-show"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/centrepoint-gets-50-million-makeover"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/centrium-square-retail-units-sold-bulk-deal"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/century-warehouse-sold-485-million"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/chinoiserie-chic-we-beg-differ"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/city-developments-only-singapore-property-group-listed-gender-equality-index-two-years-running"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/close-31-units-sold-1953"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/close-city-yet-surrounded-greenery"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/co-investing-development-opportunities-uk"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/commercial-building-north-bridge-road-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/commercial-component-wilkie-edge-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/commercial-development-site-queenstown-200-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/commercial-site-paya-lebar-central-sold"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/commonwealth-towers-principal-garden-benefit-launch-queens-peak"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/condos-1-mil-15-mil-price-range"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/conservation-shophouse-market-abuzz-again"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/conservation-shophouses-geylang-and-joo-chiat-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/consider-these-when-buying-shoebox-units"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/contrasting-fortunes-punggol"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/converting-footfalls-sales"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/cushman-wakefield%E2%80%99s-dennis-yeo-set-play-%E2%80%98premier-league%E2%80%99"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/data-centres-alternative-investment"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/deal-watch-unit-aalto-market-1600-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/developer-slashes-prices-kingsford-hillview-peak"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/developers-play-game-one-upmanship"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/eaton-residences-defy-market-forces"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/economic-headwinds-may-moderate-industrial-rents-2020"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/edge-property-turns-one"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/edmund-tie%E2%80%99s-ceo-putting-people-first"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/era-revives-coldwell-banker"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/evia-real-estate-and-metro-jointly-acquire-7-9-tampines-grande-395-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/far-east-organization-%E2%80%94-first-mover-woodlands-regional-centre"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/fb-spaces-jurong-and-bedok-sale-30-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/finance-broker-ultra-rich"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/five-adjoining-conservation-shophouses-geylang-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/five-adjoining-freehold-shophouses-kampong-glam-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/food-factories-offer-higher-yields-compared-office-retail-colliers"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/food-factory-chin-bee-crescent-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/food-factory-sale-boon-lay-18-million"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/forest-woods-sells-337-units-launch-day"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/four-freehold-geylang-shophouses-market-14-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/freehold-apartments-joo-chiat-still-road-and-telok-kurau"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/freehold-b1-redevelopment-site-near-aljunied-mrt-sale-11-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/freehold-commercial-building-joo-chiat-market-20-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/freehold-industrial-building-aljunied-sale-23-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/freehold-industrial-building-macpherson-sale-159-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/freehold-properties-balestier-and-east-coast-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/gcb-dalvey-estate-sale-auction-30-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/glimpse-eden-swire-properties%E2%80%99-first-ultra-luxury-condo-singapore"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/global-citizen-global-investor"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/good-value-city-fringe-living"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/government-raises-development-charge-rates-non-landed-residential-sector"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/grab%E2%80%99s-new-one-north-hq-house-its-largest-rd-centre"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/ground-floor-strata-fb-space-grand-building-selling-18-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/ground-floor-unit-bukit-timah-shopping-centre-going-58-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/habitap-one-app-rule-them-all"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/hdb-shophouse-ang-mo-kio-sale-26-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/hefty-loss-incurred-despite-19-year-holding-period"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/high-park-residences-hits-right-note-buyers"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/high-park-residences-rises-amid-uncertainty"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/high-specification-industrial-building-paya-lebar-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/hilltops-unit-sold-2397-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/house-fortune"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/house-tour-jerome-and-sarahs-charming-home-industrial-style-mezzanine"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/how-do-mrt-stations-affect-property-prices-and-rent"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/how-has-singapore%E2%80%99s-first-dbss-project-fared-against-resale-hdbs"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/how-rents-fared-hdb-flats"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/industrial-building-tai-seng-sale-23-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/inside-48-mil-copper-house"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/ioi-offers-257-billion-central-boulevard-white-site"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/iwg-banks-multi-brand-strategy-growth"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/jardin-sees-another-loss-making-transaction"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/just-sold-caribbean-keppel-bay-unit-sold-145-mil-profit"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/karamjit-singh-leave-jlls-residential-team"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/kingsford-bets-riverfront-location-upper-serangoon-view"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/kingsford-waterbay-sells-140-units-launch-weekend"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/landed-homes-below-2-million"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/landed-houses-flipped-million-dollar-profits"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/lian-beng-oxley-launch-strata-titled-industrial-building-tampines"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/location-scan-shunfu-ville-collective-sale-whats-its-vicinity"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/location-scan-sit%E2%80%99s-new-campus-punggol"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/logistics-building-spacetampines-market-170-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/malls-revitalise-amid-retail-woes"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/manhattan-house-collective-sale-300-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/martin-place-residential-site-fetched-1239-psf-ppr"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/mcc-land-hao-yuan-launched-highest-number-projects-2016"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/mcl-land-highest-bidder-land-parcel-jurong-west-site"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/mcl-land-sells-329-units-parc-esta-average-price-1680-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/merchants-building-south-bridge-road-collective-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/mg-real-estate-unveils-revamped-compass-one"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/mix-heritage-and-luxury"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/mixed-prospects-singapore-property-market"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/mnd-and-hdb-introduced-new-2-room-flexi-scheme"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/next-stage-co-working"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/no-lack-space-10-million-population"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/north-park-residences-set-benchmark-projects-yishun-19768-0"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/nouvel-18-sells-16-units-90-buyers-are-foreigners"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/oil-tycoon-shifts-focus-real-estate"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/one-global-%E2%80%98shaking-%E2%80%99-international-property-marketing-business-singapore"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/orchard-road-retail-rents-may-inch-08-y-o-y-year"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/oue-trendsetter"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/pair-shophouses-duxton-road-market-11-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/paradise-lost"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/paya-lebar-quarter-%E2%80%94-catalyst-future-commercial-hub"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/pm-lee-announces-new-initiatives-amk-and-sengkang-west"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/possible-extension-jurong-region-line-circle-line"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/potential-launches-2h2016"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/price-war-workers%E2%80%99-dormitories"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/property-auctions-how-low-do-prices-really-go"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/property-bukit-merah"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/ready-or-not-short-term-rentals-here-stay"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/rebirth-swan-maclaren"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/recent-ec-launches-20-30-cheaper-new-private-condos"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/redevelopment-site-cuscaden-road-170-million"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/reinventing-soilbuild-group"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/release-two-residential-sites-redhill-and-sembawang"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/resale-unit-regency-park-reaps-165-mil-profit"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/residential-market-see-spike-new-launches"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/retail-units-holland-road-shopping-centre-and-industrial-unit-211-henderson-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/revitalising-potong-pasir%E2%80%99s-private-property-market"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/revival-sales-sentosa-cove-bungalows"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/richard-jany-weathering-ups-and-downs"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/roxy-pacific%E2%80%99s-overseas-gambit"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/safdie%E2%80%99s-%E2%80%98step-pyramid%E2%80%99-bishan"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/sales-mon-jervois-pick-after-completion"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/savills-singapore-launches-business-valuation-advisory-team"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/sentosa-cove-condo-changed-hands-1368-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/shophouse-holland-avenue-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/shophouses-kampong-glam-and-little-india-poised-be-next-growth-area"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/shophouses-ripe-picking"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/shophouses-upper-east-coast-road-tanjong-katong-road-and-jalan-besar-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/signature-yishun-open-applications-polling-day"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/sim-lian-launch-and-lease-200000-sq-ft-office-space-vision-exchange"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/sims-urban-oasis-%E2%80%94-catalyst-transformation-aljunied"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/singapore-evolves-so-does-edgeprop"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/singapore-has-best-prospects-investment-asia-pacific"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/singapore-investors-snap-us5-billion-chinas-commercial-properties-brushing-aside-trade-war-concerns"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/singapore-shopping-centre-launched-collective-sale-255-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/singaporeans-are-loving-luxury-homes-foreigners-cant-buy"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/slb-development-looks-new-horizons"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/slower-sales-and-launches-due-june-holidays"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/sri5000-splits-slp-international"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/stamp-duty-common-mistakes-avoid"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/stars-kovan-star-qualities"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/stars-kovan-unveiled"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/steady-stream-well-heeled-visitors-meyer-mansion-preview-weekend"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/strata-office-space-faces-stiff-competition"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/sultan-plaza-collective-sale-380-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/superbowl-jurong-sale-20-million"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/surge-top-end-prices-2018"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/tanglin-view-unit-sale-32-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/tanjong-pagar-new-waterfront-city"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/tanjong-rhu%E2%80%99s-draws-%E2%80%94-city-fringe-location-waterfront-views"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/teambuild-land-pares-down-property-development-business"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/teho-backs-out-macpherson-deal"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/thong-sia-building-sold-380-million-largest-ever-mixed-use-collective-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/three-balestier-road-shophouses-going-95-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/three-generations-enjoy-privacy-under-one-roo"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/three-landed-homes-sold-3-mil-profit"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/three-office-units-peninsular-plaza-going-929-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/three-storey-conservation-shophouse-chinatown-sale-85-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/top-gainer-makes-record-169-mil-profit-watermark-robertson-quay"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/trouble-paradise"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/two-freehold-commercial-shophouses-sale"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/under-hammer-unit-coastal-view-residences-going-785000"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/under-hammer-unit-visioncrest-going-225-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/unit-nassim-sold-20-mil"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/unit-price-horizon-towers-falls-below-1000-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/unit-sea-view-fetches-1900-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/units-nassim-park-residences-cross-3500-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/uol-stays-nimble"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/upgraders-can-offset-condo-mortgage-hdb-rent"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/v-shenton-new-icon-heart-singapore%E2%80%99s-financial-district"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/vales-one-five-bestselling-ec-projects"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/value-st-regis-residences-buys-2100-2200-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/vertical-village-city"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/viio-balestier-launch-1450-psf"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/wartsila-singapore-sell-five-industrial-properties"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/what-happens-prices-old-leasehold-condos"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/why-park-colonial-top-selling-project-3q2018"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/windfall-district-15"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/windfall-district-20"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/windfall-serangoon"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/wing-tai-chairman-outlook-singapore-residential-market-still-subdued-despite-pick-sales"/>
-        <filter val="failed to retrieve the webpage: 403 Client Error: Forbidden for url: https://www.edgeprop.sg/property-news/yishun-ten-complex-retail-units-going-48-mil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C497" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -19812,7 +19562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -19836,860 +19586,860 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2144</v>
+        <v>2127</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2145</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2146</v>
+        <v>2129</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>2147</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2148</v>
+        <v>2131</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2149</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2150</v>
+        <v>2133</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>2292</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2151</v>
+        <v>2134</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>2152</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2153</v>
+        <v>2136</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>2154</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2155</v>
+        <v>2138</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>2156</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2157</v>
+        <v>2140</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>2158</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2159</v>
+        <v>2142</v>
       </c>
       <c r="B10" t="s">
         <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>2160</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2161</v>
+        <v>2144</v>
       </c>
       <c r="B11" t="s">
         <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>2162</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2163</v>
+        <v>2146</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>2164</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2165</v>
+        <v>2148</v>
       </c>
       <c r="B13" t="s">
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>2166</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2167</v>
+        <v>2150</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>2168</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2169</v>
+        <v>2152</v>
       </c>
       <c r="B15" t="s">
         <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>2170</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2171</v>
+        <v>2154</v>
       </c>
       <c r="B16" t="s">
         <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>2172</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2173</v>
+        <v>2156</v>
       </c>
       <c r="B17" t="s">
         <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>2174</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2175</v>
+        <v>2158</v>
       </c>
       <c r="B18" t="s">
         <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>2176</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2177</v>
+        <v>2160</v>
       </c>
       <c r="B19" t="s">
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>2178</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2179</v>
+        <v>2162</v>
       </c>
       <c r="B20" t="s">
         <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>2180</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2181</v>
+        <v>2164</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>2182</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2183</v>
+        <v>2166</v>
       </c>
       <c r="B22" t="s">
         <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>2184</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2185</v>
+        <v>2168</v>
       </c>
       <c r="B23" t="s">
         <v>301</v>
       </c>
       <c r="C23" t="s">
-        <v>2186</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2187</v>
+        <v>2170</v>
       </c>
       <c r="B24" t="s">
         <v>301</v>
       </c>
       <c r="C24" t="s">
-        <v>2188</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2189</v>
+        <v>2172</v>
       </c>
       <c r="B25" t="s">
         <v>301</v>
       </c>
       <c r="C25" t="s">
-        <v>2190</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2191</v>
+        <v>2174</v>
       </c>
       <c r="B26" t="s">
         <v>301</v>
       </c>
       <c r="C26" t="s">
-        <v>2192</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2193</v>
+        <v>2176</v>
       </c>
       <c r="B27" t="s">
         <v>301</v>
       </c>
       <c r="C27" t="s">
-        <v>2194</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2195</v>
+        <v>2178</v>
       </c>
       <c r="B28" t="s">
         <v>301</v>
       </c>
       <c r="C28" t="s">
-        <v>2196</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2197</v>
+        <v>2180</v>
       </c>
       <c r="B29" t="s">
         <v>301</v>
       </c>
       <c r="C29" t="s">
-        <v>2198</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2199</v>
+        <v>2182</v>
       </c>
       <c r="B30" t="s">
         <v>301</v>
       </c>
       <c r="C30" t="s">
-        <v>2200</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2201</v>
+        <v>2184</v>
       </c>
       <c r="B31" t="s">
         <v>301</v>
       </c>
       <c r="C31" t="s">
-        <v>2202</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2203</v>
+        <v>2186</v>
       </c>
       <c r="B32" t="s">
         <v>301</v>
       </c>
       <c r="C32" t="s">
-        <v>2204</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2205</v>
+        <v>2188</v>
       </c>
       <c r="B33" t="s">
         <v>301</v>
       </c>
       <c r="C33" t="s">
-        <v>2206</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2207</v>
+        <v>2190</v>
       </c>
       <c r="B34" t="s">
         <v>301</v>
       </c>
       <c r="C34" t="s">
-        <v>2208</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2209</v>
+        <v>2192</v>
       </c>
       <c r="B35" t="s">
         <v>301</v>
       </c>
       <c r="C35" t="s">
-        <v>2210</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2211</v>
+        <v>2194</v>
       </c>
       <c r="B36" t="s">
         <v>301</v>
       </c>
       <c r="C36" t="s">
-        <v>2212</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2213</v>
+        <v>2196</v>
       </c>
       <c r="B37" t="s">
         <v>301</v>
       </c>
       <c r="C37" t="s">
-        <v>2214</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2215</v>
+        <v>2198</v>
       </c>
       <c r="B38" t="s">
         <v>301</v>
       </c>
       <c r="C38" t="s">
-        <v>2216</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2217</v>
+        <v>2200</v>
       </c>
       <c r="B39" t="s">
         <v>301</v>
       </c>
       <c r="C39" t="s">
-        <v>2293</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2218</v>
+        <v>2201</v>
       </c>
       <c r="B40" t="s">
         <v>603</v>
       </c>
       <c r="C40" t="s">
-        <v>2219</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2220</v>
+        <v>2203</v>
       </c>
       <c r="B41" t="s">
         <v>603</v>
       </c>
       <c r="C41" t="s">
-        <v>2221</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2222</v>
+        <v>2205</v>
       </c>
       <c r="B42" t="s">
         <v>603</v>
       </c>
       <c r="C42" t="s">
-        <v>2223</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2224</v>
+        <v>2207</v>
       </c>
       <c r="B43" t="s">
         <v>603</v>
       </c>
       <c r="C43" t="s">
-        <v>2225</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2226</v>
+        <v>2209</v>
       </c>
       <c r="B44" t="s">
         <v>603</v>
       </c>
       <c r="C44" t="s">
-        <v>2227</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2228</v>
+        <v>2211</v>
       </c>
       <c r="B45" t="s">
         <v>301</v>
       </c>
       <c r="C45" t="s">
-        <v>2229</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2230</v>
+        <v>2213</v>
       </c>
       <c r="B46" t="s">
         <v>301</v>
       </c>
       <c r="C46" t="s">
-        <v>2231</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2232</v>
+        <v>2215</v>
       </c>
       <c r="B47" t="s">
         <v>301</v>
       </c>
       <c r="C47" t="s">
-        <v>2233</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2234</v>
+        <v>2217</v>
       </c>
       <c r="B48" t="s">
         <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>2235</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2236</v>
+        <v>2219</v>
       </c>
       <c r="B49" t="s">
         <v>301</v>
       </c>
       <c r="C49" t="s">
-        <v>2237</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2238</v>
+        <v>2221</v>
       </c>
       <c r="B50" t="s">
         <v>301</v>
       </c>
       <c r="C50" t="s">
-        <v>2239</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2240</v>
+        <v>2223</v>
       </c>
       <c r="B51" t="s">
         <v>301</v>
       </c>
       <c r="C51" t="s">
-        <v>2241</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2242</v>
+        <v>2225</v>
       </c>
       <c r="B52" t="s">
         <v>301</v>
       </c>
       <c r="C52" t="s">
-        <v>2243</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2244</v>
+        <v>2227</v>
       </c>
       <c r="B53" t="s">
         <v>301</v>
       </c>
       <c r="C53" t="s">
-        <v>2245</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2246</v>
+        <v>2229</v>
       </c>
       <c r="B54" t="s">
         <v>301</v>
       </c>
       <c r="C54" t="s">
-        <v>2247</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2248</v>
+        <v>2231</v>
       </c>
       <c r="B55" t="s">
         <v>301</v>
       </c>
       <c r="C55" t="s">
-        <v>2249</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2250</v>
+        <v>2233</v>
       </c>
       <c r="B56" t="s">
         <v>301</v>
       </c>
       <c r="C56" t="s">
-        <v>2251</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2252</v>
+        <v>2235</v>
       </c>
       <c r="B57" t="s">
         <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>2253</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2254</v>
+        <v>2237</v>
       </c>
       <c r="B58" t="s">
         <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>2255</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2256</v>
+        <v>2239</v>
       </c>
       <c r="B59" t="s">
         <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>2257</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2258</v>
+        <v>2241</v>
       </c>
       <c r="B60" t="s">
         <v>301</v>
       </c>
       <c r="C60" t="s">
-        <v>2259</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2260</v>
+        <v>2243</v>
       </c>
       <c r="B61" t="s">
         <v>301</v>
       </c>
       <c r="C61" t="s">
-        <v>2261</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2262</v>
+        <v>2245</v>
       </c>
       <c r="B62" t="s">
         <v>301</v>
       </c>
       <c r="C62" t="s">
-        <v>2263</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2264</v>
+        <v>2247</v>
       </c>
       <c r="B63" t="s">
         <v>301</v>
       </c>
       <c r="C63" t="s">
-        <v>2265</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2266</v>
+        <v>2249</v>
       </c>
       <c r="B64" t="s">
         <v>301</v>
       </c>
       <c r="C64" t="s">
-        <v>2267</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2268</v>
+        <v>2251</v>
       </c>
       <c r="B65" t="s">
         <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>2269</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2270</v>
+        <v>2253</v>
       </c>
       <c r="B66" t="s">
         <v>603</v>
       </c>
       <c r="C66" t="s">
-        <v>2271</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2272</v>
+        <v>2255</v>
       </c>
       <c r="B67" t="s">
         <v>603</v>
       </c>
       <c r="C67" t="s">
-        <v>2273</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2274</v>
+        <v>2257</v>
       </c>
       <c r="B68" t="s">
         <v>603</v>
       </c>
       <c r="C68" t="s">
-        <v>2275</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2276</v>
+        <v>2259</v>
       </c>
       <c r="B69" t="s">
         <v>603</v>
       </c>
       <c r="C69" t="s">
-        <v>2277</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2278</v>
+        <v>2261</v>
       </c>
       <c r="B70" t="s">
         <v>603</v>
       </c>
       <c r="C70" t="s">
-        <v>2279</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2280</v>
+        <v>2263</v>
       </c>
       <c r="B71" t="s">
         <v>603</v>
       </c>
       <c r="C71" t="s">
-        <v>2281</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>2282</v>
+        <v>2265</v>
       </c>
       <c r="B72" t="s">
         <v>603</v>
       </c>
       <c r="C72" t="s">
-        <v>2283</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>2284</v>
+        <v>2267</v>
       </c>
       <c r="B73" t="s">
         <v>787</v>
       </c>
       <c r="C73" t="s">
-        <v>2294</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>2285</v>
+        <v>2268</v>
       </c>
       <c r="B74" t="s">
         <v>787</v>
       </c>
       <c r="C74" t="s">
-        <v>2293</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2286</v>
+        <v>2269</v>
       </c>
       <c r="B75" t="s">
         <v>787</v>
       </c>
       <c r="C75" t="s">
-        <v>2295</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>2287</v>
+        <v>2270</v>
       </c>
       <c r="B76" t="s">
         <v>787</v>
       </c>
       <c r="C76" t="s">
-        <v>2296</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>2288</v>
+        <v>2271</v>
       </c>
       <c r="B77" t="s">
         <v>787</v>
       </c>
       <c r="C77" t="s">
-        <v>2297</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>2289</v>
+        <v>2272</v>
       </c>
       <c r="B78" t="s">
         <v>787</v>
       </c>
       <c r="C78" t="s">
-        <v>2298</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>2290</v>
+        <v>2273</v>
       </c>
       <c r="B79" t="s">
         <v>787</v>
       </c>
       <c r="C79" t="s">
-        <v>2299</v>
+        <v>2282</v>
       </c>
     </row>
   </sheetData>
@@ -20714,7 +20464,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2291</v>
+        <v>2274</v>
       </c>
     </row>
   </sheetData>
@@ -20738,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2291</v>
+        <v>2274</v>
       </c>
     </row>
   </sheetData>
